--- a/Flair JS & CSS.xlsx
+++ b/Flair JS & CSS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330"/>
   </bookViews>
   <sheets>
     <sheet name="flair.js" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="344">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView topLeftCell="C182" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="C131" workbookViewId="0">
+      <selection activeCell="H198" sqref="H133:H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4301,6 +4301,9 @@
       <c r="C151" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="D151" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>292</v>
       </c>
@@ -4309,7 +4312,7 @@
       </c>
       <c r="H151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"150 sigilsflair syndicate-cephalon-suda-level-7-sigil-yellowMultivariate (Cephalon Suda) sigil (yellow)",</v>
+        <v>"150 sigilsflair syndicate-cephalon-suda-level-7-sigil-yellow": "Multivariate (Cephalon Suda) sigil (yellow)",</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -4322,6 +4325,9 @@
       <c r="C152" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="D152" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E152" s="1" t="s">
         <v>293</v>
       </c>
@@ -4330,7 +4336,7 @@
       </c>
       <c r="H152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"151 sigilsflair syndicate-cephalon-suda-level-8-sigil-yellowLabryinth (Cephalon Suda) sigil (yellow)",</v>
+        <v>"151 sigilsflair syndicate-cephalon-suda-level-8-sigil-yellow": "Labryinth (Cephalon Suda) sigil (yellow)",</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -4343,6 +4349,9 @@
       <c r="C153" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="D153" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>294</v>
       </c>
@@ -4351,7 +4360,7 @@
       </c>
       <c r="H153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"152 sigilsflair syndicate-cephalon-suda-level-9-sigil-yellowHexan (Cephalon Suda) sigil (yellow)",</v>
+        <v>"152 sigilsflair syndicate-cephalon-suda-level-9-sigil-yellow": "Hexan (Cephalon Suda) sigil (yellow)",</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -4364,6 +4373,9 @@
       <c r="C154" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D154" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E154" s="1" t="s">
         <v>295</v>
       </c>
@@ -4372,7 +4384,7 @@
       </c>
       <c r="H154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"153 sigilsflair syndicate-cephalon-suda-level-10-sigil-yellowOracle (Cephalon Suda) sigil (yellow)",</v>
+        <v>"153 sigilsflair syndicate-cephalon-suda-level-10-sigil-yellow": "Oracle (Cephalon Suda) sigil (yellow)",</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
@@ -4385,6 +4397,9 @@
       <c r="C155" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="D155" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>296</v>
       </c>
@@ -4393,7 +4408,7 @@
       </c>
       <c r="H155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"154 sigilsflair syndicate-new-loka-sigil-greenNew Loka sigil (green)",</v>
+        <v>"154 sigilsflair syndicate-new-loka-sigil-green": "New Loka sigil (green)",</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -4406,6 +4421,9 @@
       <c r="C156" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="D156" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E156" s="1" t="s">
         <v>297</v>
       </c>
@@ -4414,7 +4432,7 @@
       </c>
       <c r="H156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"155 sigilsflair syndicate-new-loka-level-1-sigil-greenSacrifice (New Loka) sigil (green)",</v>
+        <v>"155 sigilsflair syndicate-new-loka-level-1-sigil-green": "Sacrifice (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -4427,6 +4445,9 @@
       <c r="C157" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="D157" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E157" s="1" t="s">
         <v>298</v>
       </c>
@@ -4435,7 +4456,7 @@
       </c>
       <c r="H157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"156 sigilsflair syndicate-new-loka-level-2-sigil-greenSeed (New Loka) sigil (green)",</v>
+        <v>"156 sigilsflair syndicate-new-loka-level-2-sigil-green": "Seed (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -4448,6 +4469,9 @@
       <c r="C158" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="D158" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E158" s="1" t="s">
         <v>299</v>
       </c>
@@ -4456,7 +4480,7 @@
       </c>
       <c r="H158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"157 sigilsflair syndicate-new-loka-level-3-sigil-greenRebirth (New Loka) sigil (green)",</v>
+        <v>"157 sigilsflair syndicate-new-loka-level-3-sigil-green": "Rebirth (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -4469,6 +4493,9 @@
       <c r="C159" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="D159" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>300</v>
       </c>
@@ -4477,7 +4504,7 @@
       </c>
       <c r="H159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"158 sigilsflair syndicate-new-loka-level-4-sigil-greenGrowth (New Loka) sigil (green)",</v>
+        <v>"158 sigilsflair syndicate-new-loka-level-4-sigil-green": "Growth (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -4490,6 +4517,9 @@
       <c r="C160" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D160" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E160" s="1" t="s">
         <v>301</v>
       </c>
@@ -4498,7 +4528,7 @@
       </c>
       <c r="H160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"159 sigilsflair syndicate-new-loka-level-5-sigil-greenClarity (New Loka) sigil (green)",</v>
+        <v>"159 sigilsflair syndicate-new-loka-level-5-sigil-green": "Clarity (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -4511,6 +4541,9 @@
       <c r="C161" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D161" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>302</v>
       </c>
@@ -4519,7 +4552,7 @@
       </c>
       <c r="H161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"160 sigilsflair syndicate-new-loka-level-6-sigil-greenBloom (New Loka) sigil (green)",</v>
+        <v>"160 sigilsflair syndicate-new-loka-level-6-sigil-green": "Bloom (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -4532,6 +4565,9 @@
       <c r="C162" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="D162" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E162" s="1" t="s">
         <v>303</v>
       </c>
@@ -4540,7 +4576,7 @@
       </c>
       <c r="H162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"161 sigilsflair syndicate-new-loka-level-7-sigil-greenPurity (New Loka) sigil (green)",</v>
+        <v>"161 sigilsflair syndicate-new-loka-level-7-sigil-green": "Purity (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -4553,6 +4589,9 @@
       <c r="C163" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D163" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E163" s="1" t="s">
         <v>304</v>
       </c>
@@ -4561,7 +4600,7 @@
       </c>
       <c r="H163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"162 sigilsflair syndicate-new-loka-level-8-sigil-greenGaia (New Loka) sigil (green)",</v>
+        <v>"162 sigilsflair syndicate-new-loka-level-8-sigil-green": "Gaia (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -4574,6 +4613,9 @@
       <c r="C164" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="D164" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E164" s="1" t="s">
         <v>305</v>
       </c>
@@ -4582,7 +4624,7 @@
       </c>
       <c r="H164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"163 sigilsflair syndicate-new-loka-level-9-sigil-greenBounty (New Loka) sigil (green)",</v>
+        <v>"163 sigilsflair syndicate-new-loka-level-9-sigil-green": "Bounty (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -4595,6 +4637,9 @@
       <c r="C165" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="D165" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>306</v>
       </c>
@@ -4603,7 +4648,7 @@
       </c>
       <c r="H165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"164 sigilsflair syndicate-new-loka-level-10-sigil-greenHumanity (New Loka) sigil (green)",</v>
+        <v>"164 sigilsflair syndicate-new-loka-level-10-sigil-green": "Humanity (New Loka) sigil (green)",</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -4616,6 +4661,9 @@
       <c r="C166" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="D166" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E166" s="1" t="s">
         <v>307</v>
       </c>
@@ -4624,7 +4672,7 @@
       </c>
       <c r="H166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"165 sigilsflair syndicate-red-veil-sigil-redRed Veil sigil (red)",</v>
+        <v>"165 sigilsflair syndicate-red-veil-sigil-red": "Red Veil sigil (red)",</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -4637,6 +4685,9 @@
       <c r="C167" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="D167" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E167" s="1" t="s">
         <v>308</v>
       </c>
@@ -4645,7 +4696,7 @@
       </c>
       <c r="H167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"166 sigilsflair syndicate-red-veil-level-1-sigil-redBlades (Red Veil) sigil (red)",</v>
+        <v>"166 sigilsflair syndicate-red-veil-level-1-sigil-red": "Blades (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -4658,6 +4709,9 @@
       <c r="C168" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="D168" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E168" s="1" t="s">
         <v>309</v>
       </c>
@@ -4666,7 +4720,7 @@
       </c>
       <c r="H168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"167 sigilsflair syndicate-red-veil-level-2-sigil-redCull (Red Veil) sigil (red)",</v>
+        <v>"167 sigilsflair syndicate-red-veil-level-2-sigil-red": "Cull (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -4679,6 +4733,9 @@
       <c r="C169" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D169" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E169" s="1" t="s">
         <v>310</v>
       </c>
@@ -4687,7 +4744,7 @@
       </c>
       <c r="H169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"168 sigilsflair syndicate-red-veil-level-3-sigil-redThreat (Red Veil) sigil (red)",</v>
+        <v>"168 sigilsflair syndicate-red-veil-level-3-sigil-red": "Threat (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -4700,6 +4757,9 @@
       <c r="C170" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D170" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E170" s="1" t="s">
         <v>311</v>
       </c>
@@ -4708,7 +4768,7 @@
       </c>
       <c r="H170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"169 sigilsflair syndicate-red-veil-level-4-sigil-redMaelstrom (Red Veil) sigil (red)",</v>
+        <v>"169 sigilsflair syndicate-red-veil-level-4-sigil-red": "Maelstrom (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -4721,6 +4781,9 @@
       <c r="C171" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="D171" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E171" s="1" t="s">
         <v>312</v>
       </c>
@@ -4729,7 +4792,7 @@
       </c>
       <c r="H171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"170 sigilsflair syndicate-red-veil-level-5-sigil-redLesion (Red Veil) sigil (red)",</v>
+        <v>"170 sigilsflair syndicate-red-veil-level-5-sigil-red": "Lesion (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -4742,6 +4805,9 @@
       <c r="C172" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="D172" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E172" s="1" t="s">
         <v>313</v>
       </c>
@@ -4750,7 +4816,7 @@
       </c>
       <c r="H172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"171 sigilsflair syndicate-red-veil-level-6-sigil-redRuin (Red Veil) sigil (red)",</v>
+        <v>"171 sigilsflair syndicate-red-veil-level-6-sigil-red": "Ruin (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -4763,6 +4829,9 @@
       <c r="C173" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="D173" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E173" s="1" t="s">
         <v>314</v>
       </c>
@@ -4771,7 +4840,7 @@
       </c>
       <c r="H173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"172 sigilsflair syndicate-red-veil-level-7-sigil-redViscera (Red Veil) sigil (red)",</v>
+        <v>"172 sigilsflair syndicate-red-veil-level-7-sigil-red": "Viscera (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -4784,6 +4853,9 @@
       <c r="C174" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="D174" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E174" s="1" t="s">
         <v>315</v>
       </c>
@@ -4792,7 +4864,7 @@
       </c>
       <c r="H174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"173 sigilsflair syndicate-red-veil-level-8-sigil-redMalevolent (Red Veil) sigil (red)",</v>
+        <v>"173 sigilsflair syndicate-red-veil-level-8-sigil-red": "Malevolent (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -4805,6 +4877,9 @@
       <c r="C175" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="D175" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E175" s="1" t="s">
         <v>316</v>
       </c>
@@ -4813,7 +4888,7 @@
       </c>
       <c r="H175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"174 sigilsflair syndicate-red-veil-level-9-sigil-redCovert (Red Veil) sigil (red)",</v>
+        <v>"174 sigilsflair syndicate-red-veil-level-9-sigil-red": "Covert (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -4826,6 +4901,9 @@
       <c r="C176" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="D176" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E176" s="1" t="s">
         <v>317</v>
       </c>
@@ -4834,7 +4912,7 @@
       </c>
       <c r="H176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"175 sigilsflair syndicate-red-veil-level-10-sigil-redAssassin (Red Veil) sigil (red)",</v>
+        <v>"175 sigilsflair syndicate-red-veil-level-10-sigil-red": "Assassin (Red Veil) sigil (red)",</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
@@ -4847,6 +4925,9 @@
       <c r="C177" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D177" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E177" s="1" t="s">
         <v>318</v>
       </c>
@@ -4855,7 +4936,7 @@
       </c>
       <c r="H177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"176 sigilsflair syndicate-steel-meridian-sigil-orangeSteel Meridian sigil (orange)",</v>
+        <v>"176 sigilsflair syndicate-steel-meridian-sigil-orange": "Steel Meridian sigil (orange)",</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
@@ -4868,6 +4949,9 @@
       <c r="C178" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="D178" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E178" s="1" t="s">
         <v>319</v>
       </c>
@@ -4876,7 +4960,7 @@
       </c>
       <c r="H178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"177 sigilsflair syndicate-steel-meridian-level-1-sigil-orangeDefiance (Steel Meridian) sigil (orange)",</v>
+        <v>"177 sigilsflair syndicate-steel-meridian-level-1-sigil-orange": "Defiance (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -4889,6 +4973,9 @@
       <c r="C179" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="D179" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E179" s="1" t="s">
         <v>320</v>
       </c>
@@ -4897,7 +4984,7 @@
       </c>
       <c r="H179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"178 sigilsflair syndicate-steel-meridian-level-2-sigil-orangeArmada (Steel Meridian) sigil (orange)",</v>
+        <v>"178 sigilsflair syndicate-steel-meridian-level-2-sigil-orange": "Armada (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
@@ -4910,6 +4997,9 @@
       <c r="C180" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="D180" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E180" s="1" t="s">
         <v>321</v>
       </c>
@@ -4918,7 +5008,7 @@
       </c>
       <c r="H180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"179 sigilsflair syndicate-steel-meridian-level-3-sigil-orangeVigilance (Steel Meridian) sigil (orange)",</v>
+        <v>"179 sigilsflair syndicate-steel-meridian-level-3-sigil-orange": "Vigilance (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
@@ -4931,6 +5021,9 @@
       <c r="C181" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="D181" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E181" s="1" t="s">
         <v>322</v>
       </c>
@@ -4939,7 +5032,7 @@
       </c>
       <c r="H181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"180 sigilsflair syndicate-steel-meridian-level-4-sigil-orangeUprising (Steel Meridian) sigil (orange)",</v>
+        <v>"180 sigilsflair syndicate-steel-meridian-level-4-sigil-orange": "Uprising (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
@@ -4952,6 +5045,9 @@
       <c r="C182" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D182" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E182" s="1" t="s">
         <v>323</v>
       </c>
@@ -4960,7 +5056,7 @@
       </c>
       <c r="H182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"181 sigilsflair syndicate-steel-meridian-level-5-sigil-orangeProtectorate (Steel Meridian) sigil (orange)",</v>
+        <v>"181 sigilsflair syndicate-steel-meridian-level-5-sigil-orange": "Protectorate (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
@@ -4973,6 +5069,9 @@
       <c r="C183" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="D183" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E183" s="1" t="s">
         <v>324</v>
       </c>
@@ -4981,7 +5080,7 @@
       </c>
       <c r="H183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"182 sigilsflair syndicate-steel-meridian-level-6-sigil-orangeFreedom Fighter (Steel Meridian) sigil (orange)",</v>
+        <v>"182 sigilsflair syndicate-steel-meridian-level-6-sigil-orange": "Freedom Fighter (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
@@ -4994,6 +5093,9 @@
       <c r="C184" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="D184" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E184" s="1" t="s">
         <v>325</v>
       </c>
@@ -5002,7 +5104,7 @@
       </c>
       <c r="H184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"183 sigilsflair syndicate-steel-meridian-level-7-sigil-orangeArmored (Steel Meridian) sigil (orange)",</v>
+        <v>"183 sigilsflair syndicate-steel-meridian-level-7-sigil-orange": "Armored (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
@@ -5015,6 +5117,9 @@
       <c r="C185" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D185" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E185" s="1" t="s">
         <v>326</v>
       </c>
@@ -5023,7 +5128,7 @@
       </c>
       <c r="H185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"184 sigilsflair syndicate-steel-meridian-level-8-sigil-orangeRebellion (Steel Meridian) sigil (orange)",</v>
+        <v>"184 sigilsflair syndicate-steel-meridian-level-8-sigil-orange": "Rebellion (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
@@ -5036,6 +5141,9 @@
       <c r="C186" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="D186" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E186" s="1" t="s">
         <v>327</v>
       </c>
@@ -5044,7 +5152,7 @@
       </c>
       <c r="H186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"185 sigilsflair syndicate-steel-meridian-level-9-sigil-orangeUnyielding (Steel Meridian) sigil (orange)",</v>
+        <v>"185 sigilsflair syndicate-steel-meridian-level-9-sigil-orange": "Unyielding (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
@@ -5057,6 +5165,9 @@
       <c r="C187" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="D187" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E187" s="1" t="s">
         <v>328</v>
       </c>
@@ -5065,7 +5176,7 @@
       </c>
       <c r="H187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"186 sigilsflair syndicate-steel-meridian-level-10-sigil-orangeChampion (Steel Meridian) sigil (orange)",</v>
+        <v>"186 sigilsflair syndicate-steel-meridian-level-10-sigil-orange": "Champion (Steel Meridian) sigil (orange)",</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
@@ -5078,6 +5189,9 @@
       <c r="C188" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="D188" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E188" s="1" t="s">
         <v>329</v>
       </c>
@@ -5086,7 +5200,7 @@
       </c>
       <c r="H188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"187 sigilsflair syndicate-the-perrin-sequence-sigil-blueThe Perrin Sequence sigil (blue)",</v>
+        <v>"187 sigilsflair syndicate-the-perrin-sequence-sigil-blue": "The Perrin Sequence sigil (blue)",</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
@@ -5099,6 +5213,9 @@
       <c r="C189" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="D189" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E189" s="1" t="s">
         <v>330</v>
       </c>
@@ -5107,7 +5224,7 @@
       </c>
       <c r="H189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"188 sigilsflair syndicate-the-perrin-sequence-level-1-sigil-blueProgress (The Perrin Sequence) sigil (blue)",</v>
+        <v>"188 sigilsflair syndicate-the-perrin-sequence-level-1-sigil-blue": "Progress (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
@@ -5120,6 +5237,9 @@
       <c r="C190" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D190" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E190" s="1" t="s">
         <v>331</v>
       </c>
@@ -5128,7 +5248,7 @@
       </c>
       <c r="H190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"189 sigilsflair syndicate-the-perrin-sequence-level-2-sigil-blueOpportunity (The Perrin Sequence) sigil (blue)",</v>
+        <v>"189 sigilsflair syndicate-the-perrin-sequence-level-2-sigil-blue": "Opportunity (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
@@ -5141,6 +5261,9 @@
       <c r="C191" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="D191" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E191" s="1" t="s">
         <v>332</v>
       </c>
@@ -5149,7 +5272,7 @@
       </c>
       <c r="H191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"190 sigilsflair syndicate-the-perrin-sequence-level-3-sigil-blueCalculating (The Perrin Sequence) sigil (blue)",</v>
+        <v>"190 sigilsflair syndicate-the-perrin-sequence-level-3-sigil-blue": "Calculating (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
@@ -5162,6 +5285,9 @@
       <c r="C192" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="D192" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E192" s="1" t="s">
         <v>333</v>
       </c>
@@ -5170,7 +5296,7 @@
       </c>
       <c r="H192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"191 sigilsflair syndicate-the-perrin-sequence-level-4-sigil-blueSynergy (The Perrin Sequence) sigil (blue)",</v>
+        <v>"191 sigilsflair syndicate-the-perrin-sequence-level-4-sigil-blue": "Synergy (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
@@ -5183,6 +5309,9 @@
       <c r="C193" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="D193" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E193" s="1" t="s">
         <v>334</v>
       </c>
@@ -5191,7 +5320,7 @@
       </c>
       <c r="H193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"192 sigilsflair syndicate-the-perrin-sequence-level-5-sigil-blueDirectives (The Perrin Sequence) sigil (blue)",</v>
+        <v>"192 sigilsflair syndicate-the-perrin-sequence-level-5-sigil-blue": "Directives (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
@@ -5204,6 +5333,9 @@
       <c r="C194" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D194" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E194" s="1" t="s">
         <v>335</v>
       </c>
@@ -5211,8 +5343,8 @@
         <v>105</v>
       </c>
       <c r="H194" s="1" t="str">
-        <f t="shared" ref="H194:H198" si="3">A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194</f>
-        <v>"193 sigilsflair syndicate-the-perrin-sequence-level-6-sigil-blueStrategy (The Perrin Sequence) sigil (blue)",</v>
+        <f t="shared" ref="H194:H200" si="3">A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194</f>
+        <v>"193 sigilsflair syndicate-the-perrin-sequence-level-6-sigil-blue": "Strategy (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
@@ -5225,6 +5357,9 @@
       <c r="C195" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="D195" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E195" s="1" t="s">
         <v>336</v>
       </c>
@@ -5233,7 +5368,7 @@
       </c>
       <c r="H195" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>"194 sigilsflair syndicate-the-perrin-sequence-level-7-sigil-blueTessilations [sic] (The Perrin Sequence) sigil (blue)",</v>
+        <v>"194 sigilsflair syndicate-the-perrin-sequence-level-7-sigil-blue": "Tessilations [sic] (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
@@ -5246,6 +5381,9 @@
       <c r="C196" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D196" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E196" s="1" t="s">
         <v>337</v>
       </c>
@@ -5254,7 +5392,7 @@
       </c>
       <c r="H196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>"195 sigilsflair syndicate-the-perrin-sequence-level-8-sigil-blueOptimum (The Perrin Sequence) sigil (blue)",</v>
+        <v>"195 sigilsflair syndicate-the-perrin-sequence-level-8-sigil-blue": "Optimum (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -5267,6 +5405,9 @@
       <c r="C197" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="D197" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E197" s="1" t="s">
         <v>338</v>
       </c>
@@ -5275,7 +5416,7 @@
       </c>
       <c r="H197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>"196 sigilsflair syndicate-the-perrin-sequence-level-9-sigil-blueCapital (The Perrin Sequence) sigil (blue)",</v>
+        <v>"196 sigilsflair syndicate-the-perrin-sequence-level-9-sigil-blue": "Capital (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -5288,6 +5429,9 @@
       <c r="C198" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="D198" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E198" s="1" t="s">
         <v>339</v>
       </c>
@@ -5296,7 +5440,7 @@
       </c>
       <c r="H198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>"197 sigilsflair syndicate-the-perrin-sequence-level-10-sigil-blueChairman (The Perrin Sequence) sigil (blue)",</v>
+        <v>"197 sigilsflair syndicate-the-perrin-sequence-level-10-sigil-blue": "Chairman (The Perrin Sequence) sigil (blue)",</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -5306,12 +5450,15 @@
       <c r="B199" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D199" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F199" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H199" s="1" t="str">
-        <f t="shared" ref="H199:H200" si="4">A199&amp;B199&amp;C199&amp;D199&amp;E199&amp;F199</f>
-        <v>"198 sigilsflair ",</v>
+        <f t="shared" si="3"/>
+        <v>"198 sigilsflair ": "",</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
@@ -5321,12 +5468,15 @@
       <c r="B200" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D200" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F200" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H200" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"199 sigilsflair ",</v>
+        <f t="shared" si="3"/>
+        <v>"199 sigilsflair ": "",</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K200"/>
     </sheetView>
   </sheetViews>
@@ -6009,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>H15-30</f>
+        <f t="shared" ref="H20:H51" si="1">H15-30</f>
         <v>-90</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -6043,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>H16-30</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -6077,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>H17-30</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -6111,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>H18-30</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -6145,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>H19-30</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -6179,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>H20-30</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -6213,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>H21-30</f>
+        <f t="shared" si="1"/>
         <v>-150</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -6247,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>H22-30</f>
+        <f t="shared" si="1"/>
         <v>-150</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -6281,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>H23-30</f>
+        <f t="shared" si="1"/>
         <v>-150</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -6315,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>H24-30</f>
+        <f t="shared" si="1"/>
         <v>-150</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -6349,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>H25-30</f>
+        <f t="shared" si="1"/>
         <v>-150</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -6383,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>H26-30</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -6417,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>H27-30</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -6451,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>H28-30</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -6485,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>H29-30</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -6519,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>H30-30</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -6553,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f>H31-30</f>
+        <f t="shared" si="1"/>
         <v>-210</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -6587,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <f>H32-30</f>
+        <f t="shared" si="1"/>
         <v>-210</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -6621,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <f>H33-30</f>
+        <f t="shared" si="1"/>
         <v>-210</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -6655,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f>H34-30</f>
+        <f t="shared" si="1"/>
         <v>-210</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -6689,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f>H35-30</f>
+        <f t="shared" si="1"/>
         <v>-210</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -6723,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>H36-30</f>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -6757,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f>H37-30</f>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -6791,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f>H38-30</f>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -6825,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f>H39-30</f>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -6859,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f>H40-30</f>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -6893,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f>H41-30</f>
+        <f t="shared" si="1"/>
         <v>-270</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -6927,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f>H42-30</f>
+        <f t="shared" si="1"/>
         <v>-270</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -6961,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f>H43-30</f>
+        <f t="shared" si="1"/>
         <v>-270</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -6995,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f>H44-30</f>
+        <f t="shared" si="1"/>
         <v>-270</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -7029,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f>H45-30</f>
+        <f t="shared" si="1"/>
         <v>-270</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -7063,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f>H46-30</f>
+        <f t="shared" si="1"/>
         <v>-300</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -7097,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f>H47-30</f>
+        <f t="shared" ref="H52:H83" si="2">H47-30</f>
         <v>-300</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -7131,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>H48-30</f>
+        <f t="shared" si="2"/>
         <v>-300</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -7165,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f>H49-30</f>
+        <f t="shared" si="2"/>
         <v>-300</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -7199,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f>H50-30</f>
+        <f t="shared" si="2"/>
         <v>-300</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -7233,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f>H51-30</f>
+        <f t="shared" si="2"/>
         <v>-330</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -7267,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f>H52-30</f>
+        <f t="shared" si="2"/>
         <v>-330</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -7301,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f>H53-30</f>
+        <f t="shared" si="2"/>
         <v>-330</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -7335,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f>H54-30</f>
+        <f t="shared" si="2"/>
         <v>-330</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -7369,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f>H55-30</f>
+        <f t="shared" si="2"/>
         <v>-330</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -7403,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f>H56-30</f>
+        <f t="shared" si="2"/>
         <v>-360</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -7437,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f>H57-30</f>
+        <f t="shared" si="2"/>
         <v>-360</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -7471,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f>H58-30</f>
+        <f t="shared" si="2"/>
         <v>-360</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -7505,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f>H59-30</f>
+        <f t="shared" si="2"/>
         <v>-360</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -7539,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f>H60-30</f>
+        <f t="shared" si="2"/>
         <v>-360</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -7573,14 +7723,14 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f>H61-30</f>
+        <f t="shared" si="2"/>
         <v>-390</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K66" s="1" t="str">
-        <f t="shared" ref="K66:K129" si="1">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66&amp;H66&amp;I66</f>
+        <f t="shared" ref="K66:K129" si="3">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66&amp;H66&amp;I66</f>
         <v>.flair-65 { background: 0px -390px; }</v>
       </c>
     </row>
@@ -7607,14 +7757,14 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f>H62-30</f>
+        <f t="shared" si="2"/>
         <v>-390</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-66 { background: -0047px -390px; }</v>
       </c>
     </row>
@@ -7641,14 +7791,14 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f>H63-30</f>
+        <f t="shared" si="2"/>
         <v>-390</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-67 { background: -0094px -390px; }</v>
       </c>
     </row>
@@ -7675,14 +7825,14 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f>H64-30</f>
+        <f t="shared" si="2"/>
         <v>-390</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-68 { background: -0141px -390px; }</v>
       </c>
     </row>
@@ -7709,14 +7859,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f>H65-30</f>
+        <f t="shared" si="2"/>
         <v>-390</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-69 { background: -0188px -390px; }</v>
       </c>
     </row>
@@ -7743,14 +7893,14 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f>H66-30</f>
+        <f t="shared" si="2"/>
         <v>-420</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-70 { background: 0px -420px; }</v>
       </c>
     </row>
@@ -7777,14 +7927,14 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f>H67-30</f>
+        <f t="shared" si="2"/>
         <v>-420</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-71 { background: -0047px -420px; }</v>
       </c>
     </row>
@@ -7811,14 +7961,14 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f>H68-30</f>
+        <f t="shared" si="2"/>
         <v>-420</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-72 { background: -0094px -420px; }</v>
       </c>
     </row>
@@ -7845,14 +7995,14 @@
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f>H69-30</f>
+        <f t="shared" si="2"/>
         <v>-420</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-73 { background: -0141px -420px; }</v>
       </c>
     </row>
@@ -7879,14 +8029,14 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f>H70-30</f>
+        <f t="shared" si="2"/>
         <v>-420</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-74 { background: -0188px -420px; }</v>
       </c>
     </row>
@@ -7913,14 +8063,14 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f>H71-30</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-75 { background: 0px -450px; }</v>
       </c>
     </row>
@@ -7947,14 +8097,14 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f>H72-30</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-76 { background: -0047px -450px; }</v>
       </c>
     </row>
@@ -7981,14 +8131,14 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f>H73-30</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-77 { background: -0094px -450px; }</v>
       </c>
     </row>
@@ -8015,14 +8165,14 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f>H74-30</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-78 { background: -0141px -450px; }</v>
       </c>
     </row>
@@ -8049,14 +8199,14 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f>H75-30</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-79 { background: -0188px -450px; }</v>
       </c>
     </row>
@@ -8083,14 +8233,14 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f>H76-30</f>
+        <f t="shared" si="2"/>
         <v>-480</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-80 { background: 0px -480px; }</v>
       </c>
     </row>
@@ -8117,14 +8267,14 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f>H77-30</f>
+        <f t="shared" si="2"/>
         <v>-480</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-81 { background: -0047px -480px; }</v>
       </c>
     </row>
@@ -8151,14 +8301,14 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f>H78-30</f>
+        <f t="shared" si="2"/>
         <v>-480</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-82 { background: -0094px -480px; }</v>
       </c>
     </row>
@@ -8185,14 +8335,14 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f>H79-30</f>
+        <f t="shared" ref="H84:H115" si="4">H79-30</f>
         <v>-480</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-83 { background: -0141px -480px; }</v>
       </c>
     </row>
@@ -8219,14 +8369,14 @@
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <f>H80-30</f>
+        <f t="shared" si="4"/>
         <v>-480</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-84 { background: -0188px -480px; }</v>
       </c>
     </row>
@@ -8253,14 +8403,14 @@
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <f>H81-30</f>
+        <f t="shared" si="4"/>
         <v>-510</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-85 { background: 0px -510px; }</v>
       </c>
     </row>
@@ -8287,14 +8437,14 @@
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <f>H82-30</f>
+        <f t="shared" si="4"/>
         <v>-510</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-86 { background: -0047px -510px; }</v>
       </c>
     </row>
@@ -8321,14 +8471,14 @@
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <f>H83-30</f>
+        <f t="shared" si="4"/>
         <v>-510</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-87 { background: -0094px -510px; }</v>
       </c>
     </row>
@@ -8355,14 +8505,14 @@
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f>H84-30</f>
+        <f t="shared" si="4"/>
         <v>-510</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-88 { background: -0141px -510px; }</v>
       </c>
     </row>
@@ -8389,14 +8539,14 @@
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f>H85-30</f>
+        <f t="shared" si="4"/>
         <v>-510</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-89 { background: -0188px -510px; }</v>
       </c>
     </row>
@@ -8423,14 +8573,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <f>H86-30</f>
+        <f t="shared" si="4"/>
         <v>-540</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-90 { background: 0px -540px; }</v>
       </c>
     </row>
@@ -8457,14 +8607,14 @@
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <f>H87-30</f>
+        <f t="shared" si="4"/>
         <v>-540</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-91 { background: -0047px -540px; }</v>
       </c>
     </row>
@@ -8491,14 +8641,14 @@
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f>H88-30</f>
+        <f t="shared" si="4"/>
         <v>-540</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-92 { background: -0094px -540px; }</v>
       </c>
     </row>
@@ -8525,14 +8675,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f>H89-30</f>
+        <f t="shared" si="4"/>
         <v>-540</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-93 { background: -0141px -540px; }</v>
       </c>
     </row>
@@ -8559,14 +8709,14 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f>H90-30</f>
+        <f t="shared" si="4"/>
         <v>-540</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-94 { background: -0188px -540px; }</v>
       </c>
     </row>
@@ -8593,14 +8743,14 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f>H91-30</f>
+        <f t="shared" si="4"/>
         <v>-570</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-95 { background: 0px -570px; }</v>
       </c>
     </row>
@@ -8627,14 +8777,14 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f>H92-30</f>
+        <f t="shared" si="4"/>
         <v>-570</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-96 { background: -0047px -570px; }</v>
       </c>
     </row>
@@ -8661,14 +8811,14 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f>H93-30</f>
+        <f t="shared" si="4"/>
         <v>-570</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-97 { background: -0094px -570px; }</v>
       </c>
     </row>
@@ -8695,14 +8845,14 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f>H94-30</f>
+        <f t="shared" si="4"/>
         <v>-570</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-98 { background: -0141px -570px; }</v>
       </c>
     </row>
@@ -8729,14 +8879,14 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>H95-30</f>
+        <f t="shared" si="4"/>
         <v>-570</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-99 { background: -0188px -570px; }</v>
       </c>
     </row>
@@ -8763,14 +8913,14 @@
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f>H96-30</f>
+        <f t="shared" si="4"/>
         <v>-600</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-100 { background: 0px -600px; }</v>
       </c>
     </row>
@@ -8797,14 +8947,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f>H97-30</f>
+        <f t="shared" si="4"/>
         <v>-600</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K102" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-101 { background: -0047px -600px; }</v>
       </c>
     </row>
@@ -8831,14 +8981,14 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f>H98-30</f>
+        <f t="shared" si="4"/>
         <v>-600</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-102 { background: -0094px -600px; }</v>
       </c>
     </row>
@@ -8865,14 +9015,14 @@
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f>H99-30</f>
+        <f t="shared" si="4"/>
         <v>-600</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-103 { background: -0141px -600px; }</v>
       </c>
     </row>
@@ -8899,14 +9049,14 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>H100-30</f>
+        <f t="shared" si="4"/>
         <v>-600</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-104 { background: -0188px -600px; }</v>
       </c>
     </row>
@@ -8933,14 +9083,14 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f>H101-30</f>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-105 { background: 0px -630px; }</v>
       </c>
     </row>
@@ -8967,14 +9117,14 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f>H102-30</f>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-106 { background: -0047px -630px; }</v>
       </c>
     </row>
@@ -9001,14 +9151,14 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f>H103-30</f>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-107 { background: -0094px -630px; }</v>
       </c>
     </row>
@@ -9035,14 +9185,14 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f>H104-30</f>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-108 { background: -0141px -630px; }</v>
       </c>
     </row>
@@ -9069,14 +9219,14 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f>H105-30</f>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-109 { background: -0188px -630px; }</v>
       </c>
     </row>
@@ -9103,14 +9253,14 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f>H106-30</f>
+        <f t="shared" si="4"/>
         <v>-660</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-110 { background: 0px -660px; }</v>
       </c>
     </row>
@@ -9137,14 +9287,14 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f>H107-30</f>
+        <f t="shared" si="4"/>
         <v>-660</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-111 { background: -0047px -660px; }</v>
       </c>
     </row>
@@ -9171,14 +9321,14 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f>H108-30</f>
+        <f t="shared" si="4"/>
         <v>-660</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-112 { background: -0094px -660px; }</v>
       </c>
     </row>
@@ -9205,14 +9355,14 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f>H109-30</f>
+        <f t="shared" si="4"/>
         <v>-660</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-113 { background: -0141px -660px; }</v>
       </c>
     </row>
@@ -9239,14 +9389,14 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f>H110-30</f>
+        <f t="shared" si="4"/>
         <v>-660</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-114 { background: -0188px -660px; }</v>
       </c>
     </row>
@@ -9273,14 +9423,14 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f>H111-30</f>
+        <f t="shared" ref="H116:H147" si="5">H111-30</f>
         <v>-690</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-115 { background: 0px -690px; }</v>
       </c>
     </row>
@@ -9307,14 +9457,14 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f>H112-30</f>
+        <f t="shared" si="5"/>
         <v>-690</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-116 { background: -0047px -690px; }</v>
       </c>
     </row>
@@ -9341,14 +9491,14 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f>H113-30</f>
+        <f t="shared" si="5"/>
         <v>-690</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-117 { background: -0094px -690px; }</v>
       </c>
     </row>
@@ -9375,14 +9525,14 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f>H114-30</f>
+        <f t="shared" si="5"/>
         <v>-690</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-118 { background: -0141px -690px; }</v>
       </c>
     </row>
@@ -9409,14 +9559,14 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f>H115-30</f>
+        <f t="shared" si="5"/>
         <v>-690</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-119 { background: -0188px -690px; }</v>
       </c>
     </row>
@@ -9443,14 +9593,14 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f>H116-30</f>
+        <f t="shared" si="5"/>
         <v>-720</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-120 { background: 0px -720px; }</v>
       </c>
     </row>
@@ -9477,14 +9627,14 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f>H117-30</f>
+        <f t="shared" si="5"/>
         <v>-720</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-121 { background: -0047px -720px; }</v>
       </c>
     </row>
@@ -9511,14 +9661,14 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f>H118-30</f>
+        <f t="shared" si="5"/>
         <v>-720</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-122 { background: -0094px -720px; }</v>
       </c>
     </row>
@@ -9545,14 +9695,14 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f>H119-30</f>
+        <f t="shared" si="5"/>
         <v>-720</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-123 { background: -0141px -720px; }</v>
       </c>
     </row>
@@ -9579,14 +9729,14 @@
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f>H120-30</f>
+        <f t="shared" si="5"/>
         <v>-720</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-124 { background: -0188px -720px; }</v>
       </c>
     </row>
@@ -9613,14 +9763,14 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f>H121-30</f>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-125 { background: 0px -750px; }</v>
       </c>
     </row>
@@ -9647,14 +9797,14 @@
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f>H122-30</f>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-126 { background: -0047px -750px; }</v>
       </c>
     </row>
@@ -9681,14 +9831,14 @@
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f>H123-30</f>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-127 { background: -0094px -750px; }</v>
       </c>
     </row>
@@ -9715,14 +9865,14 @@
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f>H124-30</f>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.flair-128 { background: -0141px -750px; }</v>
       </c>
     </row>
@@ -9749,14 +9899,14 @@
         <v>0</v>
       </c>
       <c r="H130" s="4">
-        <f>H125-30</f>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K130" s="1" t="str">
-        <f t="shared" ref="K130:K193" si="2">A130&amp;B130&amp;C130&amp;D130&amp;E130&amp;F130&amp;G130&amp;H130&amp;I130</f>
+        <f t="shared" ref="K130:K193" si="6">A130&amp;B130&amp;C130&amp;D130&amp;E130&amp;F130&amp;G130&amp;H130&amp;I130</f>
         <v>.flair-129 { background: -0188px -750px; }</v>
       </c>
     </row>
@@ -9783,14 +9933,14 @@
         <v>0</v>
       </c>
       <c r="H131" s="4">
-        <f>H126-30</f>
+        <f t="shared" si="5"/>
         <v>-780</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K131" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-130 { background: 0px -780px; }</v>
       </c>
     </row>
@@ -9817,14 +9967,14 @@
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f>H127-30</f>
+        <f t="shared" si="5"/>
         <v>-780</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-131 { background: -0047px -780px; }</v>
       </c>
     </row>
@@ -9851,14 +10001,14 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f>H128-30</f>
+        <f t="shared" si="5"/>
         <v>-780</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-132 { background: -0094px -780px; }</v>
       </c>
     </row>
@@ -9885,14 +10035,14 @@
         <v>0</v>
       </c>
       <c r="H134" s="4">
-        <f>H129-30</f>
+        <f t="shared" si="5"/>
         <v>-780</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-133 { background: -0141px -780px; }</v>
       </c>
     </row>
@@ -9919,14 +10069,14 @@
         <v>0</v>
       </c>
       <c r="H135" s="4">
-        <f>H130-30</f>
+        <f t="shared" si="5"/>
         <v>-780</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-134 { background: -0188px -780px; }</v>
       </c>
     </row>
@@ -9953,14 +10103,14 @@
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <f>H131-30</f>
+        <f t="shared" si="5"/>
         <v>-810</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-135 { background: 0px -810px; }</v>
       </c>
     </row>
@@ -9987,14 +10137,14 @@
         <v>0</v>
       </c>
       <c r="H137" s="4">
-        <f>H132-30</f>
+        <f t="shared" si="5"/>
         <v>-810</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-136 { background: -0047px -810px; }</v>
       </c>
     </row>
@@ -10021,14 +10171,14 @@
         <v>0</v>
       </c>
       <c r="H138" s="4">
-        <f>H133-30</f>
+        <f t="shared" si="5"/>
         <v>-810</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-137 { background: -0094px -810px; }</v>
       </c>
     </row>
@@ -10055,14 +10205,14 @@
         <v>0</v>
       </c>
       <c r="H139" s="4">
-        <f>H134-30</f>
+        <f t="shared" si="5"/>
         <v>-810</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-138 { background: -0141px -810px; }</v>
       </c>
     </row>
@@ -10089,14 +10239,14 @@
         <v>0</v>
       </c>
       <c r="H140" s="4">
-        <f>H135-30</f>
+        <f t="shared" si="5"/>
         <v>-810</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-139 { background: -0188px -810px; }</v>
       </c>
     </row>
@@ -10123,14 +10273,14 @@
         <v>0</v>
       </c>
       <c r="H141" s="4">
-        <f>H136-30</f>
+        <f t="shared" si="5"/>
         <v>-840</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-140 { background: 0px -840px; }</v>
       </c>
     </row>
@@ -10157,14 +10307,14 @@
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <f>H137-30</f>
+        <f t="shared" si="5"/>
         <v>-840</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-141 { background: -0047px -840px; }</v>
       </c>
     </row>
@@ -10191,14 +10341,14 @@
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f>H138-30</f>
+        <f t="shared" si="5"/>
         <v>-840</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-142 { background: -0094px -840px; }</v>
       </c>
     </row>
@@ -10225,14 +10375,14 @@
         <v>0</v>
       </c>
       <c r="H144" s="4">
-        <f>H139-30</f>
+        <f t="shared" si="5"/>
         <v>-840</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-143 { background: -0141px -840px; }</v>
       </c>
     </row>
@@ -10259,14 +10409,14 @@
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <f>H140-30</f>
+        <f t="shared" si="5"/>
         <v>-840</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-144 { background: -0188px -840px; }</v>
       </c>
     </row>
@@ -10293,14 +10443,14 @@
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <f>H141-30</f>
+        <f t="shared" si="5"/>
         <v>-870</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-145 { background: 0px -870px; }</v>
       </c>
     </row>
@@ -10327,14 +10477,14 @@
         <v>0</v>
       </c>
       <c r="H147" s="4">
-        <f>H142-30</f>
+        <f t="shared" si="5"/>
         <v>-870</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-146 { background: -0047px -870px; }</v>
       </c>
     </row>
@@ -10361,14 +10511,14 @@
         <v>0</v>
       </c>
       <c r="H148" s="4">
-        <f>H143-30</f>
+        <f t="shared" ref="H148:H179" si="7">H143-30</f>
         <v>-870</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K148" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-147 { background: -0094px -870px; }</v>
       </c>
     </row>
@@ -10395,14 +10545,14 @@
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <f>H144-30</f>
+        <f t="shared" si="7"/>
         <v>-870</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K149" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-148 { background: -0141px -870px; }</v>
       </c>
     </row>
@@ -10429,14 +10579,14 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f>H145-30</f>
+        <f t="shared" si="7"/>
         <v>-870</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K150" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-149 { background: -0188px -870px; }</v>
       </c>
     </row>
@@ -10463,14 +10613,14 @@
         <v>0</v>
       </c>
       <c r="H151" s="4">
-        <f>H146-30</f>
+        <f t="shared" si="7"/>
         <v>-900</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K151" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-150 { background: 0px -900px; }</v>
       </c>
     </row>
@@ -10497,14 +10647,14 @@
         <v>0</v>
       </c>
       <c r="H152" s="4">
-        <f>H147-30</f>
+        <f t="shared" si="7"/>
         <v>-900</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K152" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-151 { background: -0047px -900px; }</v>
       </c>
     </row>
@@ -10531,14 +10681,14 @@
         <v>0</v>
       </c>
       <c r="H153" s="4">
-        <f>H148-30</f>
+        <f t="shared" si="7"/>
         <v>-900</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K153" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-152 { background: -0094px -900px; }</v>
       </c>
     </row>
@@ -10565,14 +10715,14 @@
         <v>0</v>
       </c>
       <c r="H154" s="4">
-        <f>H149-30</f>
+        <f t="shared" si="7"/>
         <v>-900</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K154" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-153 { background: -0141px -900px; }</v>
       </c>
     </row>
@@ -10599,14 +10749,14 @@
         <v>0</v>
       </c>
       <c r="H155" s="4">
-        <f>H150-30</f>
+        <f t="shared" si="7"/>
         <v>-900</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K155" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-154 { background: -0188px -900px; }</v>
       </c>
     </row>
@@ -10633,14 +10783,14 @@
         <v>0</v>
       </c>
       <c r="H156" s="4">
-        <f>H151-30</f>
+        <f t="shared" si="7"/>
         <v>-930</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K156" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-155 { background: 0px -930px; }</v>
       </c>
     </row>
@@ -10667,14 +10817,14 @@
         <v>0</v>
       </c>
       <c r="H157" s="4">
-        <f>H152-30</f>
+        <f t="shared" si="7"/>
         <v>-930</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K157" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-156 { background: -0047px -930px; }</v>
       </c>
     </row>
@@ -10701,14 +10851,14 @@
         <v>0</v>
       </c>
       <c r="H158" s="4">
-        <f>H153-30</f>
+        <f t="shared" si="7"/>
         <v>-930</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K158" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-157 { background: -0094px -930px; }</v>
       </c>
     </row>
@@ -10735,14 +10885,14 @@
         <v>0</v>
       </c>
       <c r="H159" s="4">
-        <f>H154-30</f>
+        <f t="shared" si="7"/>
         <v>-930</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K159" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-158 { background: -0141px -930px; }</v>
       </c>
     </row>
@@ -10769,14 +10919,14 @@
         <v>0</v>
       </c>
       <c r="H160" s="4">
-        <f>H155-30</f>
+        <f t="shared" si="7"/>
         <v>-930</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K160" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-159 { background: -0188px -930px; }</v>
       </c>
     </row>
@@ -10803,14 +10953,14 @@
         <v>0</v>
       </c>
       <c r="H161" s="4">
-        <f>H156-30</f>
+        <f t="shared" si="7"/>
         <v>-960</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K161" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-160 { background: 0px -960px; }</v>
       </c>
     </row>
@@ -10837,14 +10987,14 @@
         <v>0</v>
       </c>
       <c r="H162" s="4">
-        <f>H157-30</f>
+        <f t="shared" si="7"/>
         <v>-960</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K162" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-161 { background: -0047px -960px; }</v>
       </c>
     </row>
@@ -10871,14 +11021,14 @@
         <v>0</v>
       </c>
       <c r="H163" s="4">
-        <f>H158-30</f>
+        <f t="shared" si="7"/>
         <v>-960</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K163" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-162 { background: -0094px -960px; }</v>
       </c>
     </row>
@@ -10905,14 +11055,14 @@
         <v>0</v>
       </c>
       <c r="H164" s="4">
-        <f>H159-30</f>
+        <f t="shared" si="7"/>
         <v>-960</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K164" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-163 { background: -0141px -960px; }</v>
       </c>
     </row>
@@ -10939,14 +11089,14 @@
         <v>0</v>
       </c>
       <c r="H165" s="4">
-        <f>H160-30</f>
+        <f t="shared" si="7"/>
         <v>-960</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K165" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-164 { background: -0188px -960px; }</v>
       </c>
     </row>
@@ -10973,14 +11123,14 @@
         <v>0</v>
       </c>
       <c r="H166" s="4">
-        <f>H161-30</f>
+        <f t="shared" si="7"/>
         <v>-990</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K166" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-165 { background: 0px -990px; }</v>
       </c>
     </row>
@@ -11007,14 +11157,14 @@
         <v>0</v>
       </c>
       <c r="H167" s="4">
-        <f>H162-30</f>
+        <f t="shared" si="7"/>
         <v>-990</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K167" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-166 { background: -0047px -990px; }</v>
       </c>
     </row>
@@ -11041,14 +11191,14 @@
         <v>0</v>
       </c>
       <c r="H168" s="4">
-        <f>H163-30</f>
+        <f t="shared" si="7"/>
         <v>-990</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K168" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-167 { background: -0094px -990px; }</v>
       </c>
     </row>
@@ -11075,14 +11225,14 @@
         <v>0</v>
       </c>
       <c r="H169" s="4">
-        <f>H164-30</f>
+        <f t="shared" si="7"/>
         <v>-990</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K169" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-168 { background: -0141px -990px; }</v>
       </c>
     </row>
@@ -11109,14 +11259,14 @@
         <v>0</v>
       </c>
       <c r="H170" s="4">
-        <f>H165-30</f>
+        <f t="shared" si="7"/>
         <v>-990</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K170" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-169 { background: -0188px -990px; }</v>
       </c>
     </row>
@@ -11143,14 +11293,14 @@
         <v>0</v>
       </c>
       <c r="H171" s="4">
-        <f>H166-30</f>
+        <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K171" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-170 { background: 0px -1020px; }</v>
       </c>
     </row>
@@ -11177,14 +11327,14 @@
         <v>0</v>
       </c>
       <c r="H172" s="4">
-        <f>H167-30</f>
+        <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K172" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-171 { background: -0047px -1020px; }</v>
       </c>
     </row>
@@ -11211,14 +11361,14 @@
         <v>0</v>
       </c>
       <c r="H173" s="4">
-        <f>H168-30</f>
+        <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-172 { background: -0094px -1020px; }</v>
       </c>
     </row>
@@ -11245,14 +11395,14 @@
         <v>0</v>
       </c>
       <c r="H174" s="4">
-        <f>H169-30</f>
+        <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-173 { background: -0141px -1020px; }</v>
       </c>
     </row>
@@ -11279,14 +11429,14 @@
         <v>0</v>
       </c>
       <c r="H175" s="4">
-        <f>H170-30</f>
+        <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-174 { background: -0188px -1020px; }</v>
       </c>
     </row>
@@ -11313,14 +11463,14 @@
         <v>0</v>
       </c>
       <c r="H176" s="4">
-        <f>H171-30</f>
+        <f t="shared" si="7"/>
         <v>-1050</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-175 { background: 0px -1050px; }</v>
       </c>
     </row>
@@ -11347,14 +11497,14 @@
         <v>0</v>
       </c>
       <c r="H177" s="4">
-        <f>H172-30</f>
+        <f t="shared" si="7"/>
         <v>-1050</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-176 { background: -0047px -1050px; }</v>
       </c>
     </row>
@@ -11381,14 +11531,14 @@
         <v>0</v>
       </c>
       <c r="H178" s="4">
-        <f>H173-30</f>
+        <f t="shared" si="7"/>
         <v>-1050</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-177 { background: -0094px -1050px; }</v>
       </c>
     </row>
@@ -11415,14 +11565,14 @@
         <v>0</v>
       </c>
       <c r="H179" s="4">
-        <f>H174-30</f>
+        <f t="shared" si="7"/>
         <v>-1050</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-178 { background: -0141px -1050px; }</v>
       </c>
     </row>
@@ -11449,14 +11599,14 @@
         <v>0</v>
       </c>
       <c r="H180" s="4">
-        <f>H175-30</f>
+        <f t="shared" ref="H180:H211" si="8">H175-30</f>
         <v>-1050</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-179 { background: -0188px -1050px; }</v>
       </c>
     </row>
@@ -11483,14 +11633,14 @@
         <v>0</v>
       </c>
       <c r="H181" s="4">
-        <f>H176-30</f>
+        <f t="shared" si="8"/>
         <v>-1080</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-180 { background: 0px -1080px; }</v>
       </c>
     </row>
@@ -11517,14 +11667,14 @@
         <v>0</v>
       </c>
       <c r="H182" s="4">
-        <f>H177-30</f>
+        <f t="shared" si="8"/>
         <v>-1080</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-181 { background: -0047px -1080px; }</v>
       </c>
     </row>
@@ -11551,14 +11701,14 @@
         <v>0</v>
       </c>
       <c r="H183" s="4">
-        <f>H178-30</f>
+        <f t="shared" si="8"/>
         <v>-1080</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-182 { background: -0094px -1080px; }</v>
       </c>
     </row>
@@ -11585,14 +11735,14 @@
         <v>0</v>
       </c>
       <c r="H184" s="4">
-        <f>H179-30</f>
+        <f t="shared" si="8"/>
         <v>-1080</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-183 { background: -0141px -1080px; }</v>
       </c>
     </row>
@@ -11619,14 +11769,14 @@
         <v>0</v>
       </c>
       <c r="H185" s="4">
-        <f>H180-30</f>
+        <f t="shared" si="8"/>
         <v>-1080</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-184 { background: -0188px -1080px; }</v>
       </c>
     </row>
@@ -11653,14 +11803,14 @@
         <v>0</v>
       </c>
       <c r="H186" s="4">
-        <f>H181-30</f>
+        <f t="shared" si="8"/>
         <v>-1110</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-185 { background: 0px -1110px; }</v>
       </c>
     </row>
@@ -11687,14 +11837,14 @@
         <v>0</v>
       </c>
       <c r="H187" s="4">
-        <f>H182-30</f>
+        <f t="shared" si="8"/>
         <v>-1110</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-186 { background: -0047px -1110px; }</v>
       </c>
     </row>
@@ -11721,14 +11871,14 @@
         <v>0</v>
       </c>
       <c r="H188" s="4">
-        <f>H183-30</f>
+        <f t="shared" si="8"/>
         <v>-1110</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-187 { background: -0094px -1110px; }</v>
       </c>
     </row>
@@ -11755,14 +11905,14 @@
         <v>0</v>
       </c>
       <c r="H189" s="4">
-        <f>H184-30</f>
+        <f t="shared" si="8"/>
         <v>-1110</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-188 { background: -0141px -1110px; }</v>
       </c>
     </row>
@@ -11789,14 +11939,14 @@
         <v>0</v>
       </c>
       <c r="H190" s="4">
-        <f>H185-30</f>
+        <f t="shared" si="8"/>
         <v>-1110</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-189 { background: -0188px -1110px; }</v>
       </c>
     </row>
@@ -11823,14 +11973,14 @@
         <v>0</v>
       </c>
       <c r="H191" s="4">
-        <f>H186-30</f>
+        <f t="shared" si="8"/>
         <v>-1140</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-190 { background: 0px -1140px; }</v>
       </c>
     </row>
@@ -11857,14 +12007,14 @@
         <v>0</v>
       </c>
       <c r="H192" s="4">
-        <f>H187-30</f>
+        <f t="shared" si="8"/>
         <v>-1140</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-191 { background: -0047px -1140px; }</v>
       </c>
     </row>
@@ -11891,14 +12041,14 @@
         <v>0</v>
       </c>
       <c r="H193" s="4">
-        <f>H188-30</f>
+        <f t="shared" si="8"/>
         <v>-1140</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>.flair-192 { background: -0094px -1140px; }</v>
       </c>
     </row>
@@ -11925,14 +12075,14 @@
         <v>0</v>
       </c>
       <c r="H194" s="4">
-        <f>H189-30</f>
+        <f t="shared" si="8"/>
         <v>-1140</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K194" s="1" t="str">
-        <f t="shared" ref="K194:K200" si="3">A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194&amp;G194&amp;H194&amp;I194</f>
+        <f t="shared" ref="K194:K200" si="9">A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194&amp;G194&amp;H194&amp;I194</f>
         <v>.flair-193 { background: -0141px -1140px; }</v>
       </c>
     </row>
@@ -11959,14 +12109,14 @@
         <v>0</v>
       </c>
       <c r="H195" s="4">
-        <f>H190-30</f>
+        <f t="shared" si="8"/>
         <v>-1140</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-194 { background: -0188px -1140px; }</v>
       </c>
     </row>
@@ -11993,14 +12143,14 @@
         <v>0</v>
       </c>
       <c r="H196" s="4">
-        <f>H191-30</f>
+        <f t="shared" si="8"/>
         <v>-1170</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-195 { background: 0px -1170px; }</v>
       </c>
     </row>
@@ -12027,14 +12177,14 @@
         <v>0</v>
       </c>
       <c r="H197" s="4">
-        <f>H192-30</f>
+        <f t="shared" si="8"/>
         <v>-1170</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-196 { background: -0047px -1170px; }</v>
       </c>
     </row>
@@ -12061,14 +12211,14 @@
         <v>0</v>
       </c>
       <c r="H198" s="4">
-        <f>H193-30</f>
+        <f t="shared" si="8"/>
         <v>-1170</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K198" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-197 { background: -0094px -1170px; }</v>
       </c>
     </row>
@@ -12095,14 +12245,14 @@
         <v>0</v>
       </c>
       <c r="H199" s="4">
-        <f>H194-30</f>
+        <f t="shared" si="8"/>
         <v>-1170</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K199" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-198 { background: -0141px -1170px; }</v>
       </c>
     </row>
@@ -12129,14 +12279,14 @@
         <v>0</v>
       </c>
       <c r="H200" s="4">
-        <f>H195-30</f>
+        <f t="shared" si="8"/>
         <v>-1170</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K200" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>.flair-199 { background: -0188px -1170px; }</v>
       </c>
     </row>

--- a/Flair JS & CSS.xlsx
+++ b/Flair JS & CSS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="435">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1138,499 +1138,193 @@
     <t>"299</t>
   </si>
   <si>
-    <t>Liset Prime</t>
-  </si>
-  <si>
-    <t>Liset</t>
-  </si>
-  <si>
-    <t>Mantis</t>
-  </si>
-  <si>
-    <t>Scimitar</t>
-  </si>
-  <si>
-    <t>Xiphos</t>
-  </si>
-  <si>
-    <t>Liset Day of the Dead skin (Halloween exclusive)</t>
-  </si>
-  <si>
-    <t>Liset Hellkite skin</t>
-  </si>
-  <si>
-    <t>Liset Hima skin</t>
-  </si>
-  <si>
-    <t>Liset Jade skin (XB1 exclusive)</t>
-  </si>
-  <si>
-    <t>Liset Kotara skin</t>
-  </si>
-  <si>
-    <t>Liset Kuva skin</t>
-  </si>
-  <si>
-    <t>Liset Kuza skin</t>
-  </si>
-  <si>
-    <t>Liset Maltzer Oculus skin</t>
-  </si>
-  <si>
-    <t>Liset Obsidian skin</t>
-  </si>
-  <si>
-    <t>Liset Pahta skin</t>
-  </si>
-  <si>
-    <t>Liset Prisma skin</t>
-  </si>
-  <si>
-    <t>Liset Quilate skin</t>
-  </si>
-  <si>
-    <t>Liset Zikha skin</t>
-  </si>
-  <si>
-    <t>Mantis Bajada skin</t>
-  </si>
-  <si>
-    <t>Mantis Day of the Dead skin (Halloween exclusive)</t>
-  </si>
-  <si>
-    <t>Mantis Gloam skin</t>
-  </si>
-  <si>
-    <t>Mantis Kuva skin</t>
-  </si>
-  <si>
-    <t>Mantis Oscuro skin</t>
-  </si>
-  <si>
-    <t>Mantis Prisma skin</t>
-  </si>
-  <si>
-    <t>Scimitar Echo skin</t>
-  </si>
-  <si>
-    <t>Scimitar Kuva skin</t>
-  </si>
-  <si>
-    <t>Scimitar Magus skin</t>
-  </si>
-  <si>
-    <t>Scimitar Nami skin</t>
-  </si>
-  <si>
-    <t>Scimitar Prisma skin</t>
-  </si>
-  <si>
-    <t>Scimitar Sotz skin</t>
-  </si>
-  <si>
-    <t>Xiphos Henipa skin</t>
-  </si>
-  <si>
-    <t>Xiphos Ifrit skin</t>
-  </si>
-  <si>
-    <t>Xiphos Kuva skin</t>
-  </si>
-  <si>
-    <t>Xiphos Prisma skin</t>
-  </si>
-  <si>
-    <t>liset-prime</t>
-  </si>
-  <si>
-    <t>liset</t>
-  </si>
-  <si>
-    <t>mantis</t>
-  </si>
-  <si>
-    <t>scimitar</t>
-  </si>
-  <si>
-    <t>xiphos</t>
-  </si>
-  <si>
-    <t>liset-day-of-the-dead-skin</t>
-  </si>
-  <si>
-    <t>liset-hellkite-skin</t>
-  </si>
-  <si>
-    <t>liset-hima-skin</t>
-  </si>
-  <si>
-    <t>liset-jade-skin</t>
-  </si>
-  <si>
-    <t>liset-kotara-skin</t>
-  </si>
-  <si>
-    <t>liset-kuva-skin</t>
-  </si>
-  <si>
-    <t>liset-kuza-skin</t>
-  </si>
-  <si>
-    <t>liset-maltzer-oculus-skin</t>
-  </si>
-  <si>
-    <t>liset-obsidian-skin</t>
-  </si>
-  <si>
-    <t>liset-pahta-skin</t>
-  </si>
-  <si>
-    <t>liset-prisma-skin</t>
-  </si>
-  <si>
-    <t>liset-quilate-skin</t>
-  </si>
-  <si>
-    <t>liset-zikha-skin</t>
-  </si>
-  <si>
-    <t>mantis-bajada-skin</t>
-  </si>
-  <si>
-    <t>mantis-day-of-the-dead-skin</t>
-  </si>
-  <si>
-    <t>mantis-gloam-skin</t>
-  </si>
-  <si>
-    <t>mantis-kuva-skin</t>
-  </si>
-  <si>
-    <t>mantis-oscuro-skin</t>
-  </si>
-  <si>
-    <t>mantis-prisma-skin</t>
-  </si>
-  <si>
-    <t>scimitar-echo-skin</t>
-  </si>
-  <si>
-    <t>scimitar-kuva-skin</t>
-  </si>
-  <si>
-    <t>scimitar-magus-skin</t>
-  </si>
-  <si>
-    <t>scimitar-nami-skin</t>
-  </si>
-  <si>
-    <t>scimitar-prisma-skin</t>
-  </si>
-  <si>
-    <t>scimitar-sotz-skin</t>
-  </si>
-  <si>
-    <t>xiphos-henipa-skin</t>
-  </si>
-  <si>
-    <t>xiphos-ifrit-skin</t>
-  </si>
-  <si>
-    <t>xiphos-kuva-skin</t>
-  </si>
-  <si>
-    <t>xiphos-prisma-skin</t>
-  </si>
-  <si>
-    <t>Ayatan Valana sculpture</t>
-  </si>
-  <si>
-    <t>Ayatan amber star</t>
-  </si>
-  <si>
-    <t>Ayatan cyan star</t>
-  </si>
-  <si>
-    <t>Ghost clan emblem</t>
-  </si>
-  <si>
-    <t>Shadow clan emblem</t>
-  </si>
-  <si>
-    <t>Storm clan emblem</t>
-  </si>
-  <si>
-    <t>Mountain clan emblem</t>
-  </si>
-  <si>
-    <t>Moon clan emblem</t>
-  </si>
-  <si>
-    <t>Kuria</t>
-  </si>
-  <si>
-    <t>Sacred vessel</t>
-  </si>
-  <si>
-    <t>Argon crystal</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>Ducats</t>
-  </si>
-  <si>
-    <t>Endo</t>
-  </si>
-  <si>
-    <t>Exilus adapter</t>
-  </si>
-  <si>
-    <t>Kubrow egg</t>
-  </si>
-  <si>
-    <t>Kuva</t>
-  </si>
-  <si>
-    <t>Legendary core</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Void trace</t>
-  </si>
-  <si>
-    <t>Maxim medallion</t>
-  </si>
-  <si>
-    <t>Genius datum</t>
-  </si>
-  <si>
-    <t>Flawless seed</t>
-  </si>
-  <si>
-    <t>Partner quittance</t>
-  </si>
-  <si>
-    <t>Exalted mark</t>
-  </si>
-  <si>
-    <t>General insignia</t>
-  </si>
-  <si>
-    <t>Medallion</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>Quittance</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Insignia</t>
-  </si>
-  <si>
-    <t>ayatan-valana-sculpture</t>
-  </si>
-  <si>
-    <t>ayatan-amber-star</t>
-  </si>
-  <si>
-    <t>ayatan-cyan-star</t>
-  </si>
-  <si>
-    <t>ghost-clan-emblem</t>
-  </si>
-  <si>
-    <t>shadow-clan-emblem</t>
-  </si>
-  <si>
-    <t>storm-clan-emblem</t>
-  </si>
-  <si>
-    <t>mountain-clan-emblem</t>
-  </si>
-  <si>
-    <t>moon-clan-emblem</t>
-  </si>
-  <si>
-    <t>kuria</t>
-  </si>
-  <si>
-    <t>sacred-vessel</t>
-  </si>
-  <si>
-    <t>argon-crystal</t>
-  </si>
-  <si>
-    <t>credits</t>
-  </si>
-  <si>
-    <t>ducats</t>
-  </si>
-  <si>
-    <t>endo</t>
-  </si>
-  <si>
-    <t>exilus-adapter</t>
-  </si>
-  <si>
-    <t>kubrow-egg</t>
-  </si>
-  <si>
-    <t>kuva</t>
-  </si>
-  <si>
-    <t>legendary-core</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>platinum</t>
-  </si>
-  <si>
-    <t>void-trace</t>
-  </si>
-  <si>
-    <t>maxim-medallion</t>
-  </si>
-  <si>
-    <t>genius-datum</t>
-  </si>
-  <si>
-    <t>flawless-seed</t>
-  </si>
-  <si>
-    <t>partner-quittance</t>
-  </si>
-  <si>
-    <t>exalted-mark</t>
-  </si>
-  <si>
-    <t>general-insignia</t>
-  </si>
-  <si>
-    <t>medallion</t>
-  </si>
-  <si>
-    <t>datum</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>quittance</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>insignia</t>
-  </si>
-  <si>
-    <t>Moon icon</t>
-  </si>
-  <si>
-    <t>Sun icon</t>
-  </si>
-  <si>
-    <t>Impact damage icon</t>
-  </si>
-  <si>
-    <t>Puncture damage icon</t>
-  </si>
-  <si>
-    <t>Slash damage icon</t>
-  </si>
-  <si>
-    <t>Cold damage icon</t>
-  </si>
-  <si>
-    <t>Electricity damage icon</t>
-  </si>
-  <si>
-    <t>Heat damage icon</t>
-  </si>
-  <si>
-    <t>Toxin damage icon</t>
-  </si>
-  <si>
-    <t>Blast damage icon</t>
-  </si>
-  <si>
-    <t>Corrosive damage icon</t>
-  </si>
-  <si>
-    <t>Gas damage icon</t>
-  </si>
-  <si>
-    <t>Magnetic damage icon</t>
-  </si>
-  <si>
-    <t>Radiation damage icon</t>
-  </si>
-  <si>
-    <t>Viral damage icon</t>
-  </si>
-  <si>
-    <t>miscellaneousflair</t>
-  </si>
-  <si>
-    <t>moon-icon</t>
-  </si>
-  <si>
-    <t>sun-icon</t>
-  </si>
-  <si>
-    <t>impact-damage-icon</t>
-  </si>
-  <si>
-    <t>puncture-damage-icon</t>
-  </si>
-  <si>
-    <t>slash-damage-icon</t>
-  </si>
-  <si>
-    <t>cold-damage-icon</t>
-  </si>
-  <si>
-    <t>electricity-damage-icon</t>
-  </si>
-  <si>
-    <t>heat-damage-icon</t>
-  </si>
-  <si>
-    <t>toxin-damage-icon</t>
-  </si>
-  <si>
-    <t>blast-damage-icon</t>
-  </si>
-  <si>
-    <t>corrosive-damage-icon</t>
-  </si>
-  <si>
-    <t>gas-damage-icon</t>
-  </si>
-  <si>
-    <t>magnetic-damage-icon</t>
-  </si>
-  <si>
-    <t>radiation-damage-icon</t>
-  </si>
-  <si>
-    <t>viral-damage-icon</t>
+    <t>regularwarframesflair</t>
+  </si>
+  <si>
+    <t>Ash (alternate picture)</t>
+  </si>
+  <si>
+    <t>Banshee (alternate picture)</t>
+  </si>
+  <si>
+    <t>Ember (alternate picture)</t>
+  </si>
+  <si>
+    <t>Excalibur (alternate picture)</t>
+  </si>
+  <si>
+    <t>Frost (alternate picture)</t>
+  </si>
+  <si>
+    <t>Loki (alternate picture)</t>
+  </si>
+  <si>
+    <t>Mag (alternate picture)</t>
+  </si>
+  <si>
+    <t>Mesa (alternate picture)</t>
+  </si>
+  <si>
+    <t>Nyx (alternate picture)</t>
+  </si>
+  <si>
+    <t>Rhino (alternate picture)</t>
+  </si>
+  <si>
+    <t>Saryn (alternate picture)</t>
+  </si>
+  <si>
+    <t>Trinity (alternate picture)</t>
+  </si>
+  <si>
+    <t>Volt (alternate picture)</t>
+  </si>
+  <si>
+    <t>Atlas (Brawler Bundle)</t>
+  </si>
+  <si>
+    <t>Chroma (Dragon Bundle)</t>
+  </si>
+  <si>
+    <t>Equinox (Mega Pack)</t>
+  </si>
+  <si>
+    <t>Excalibur (Continuity Collection)</t>
+  </si>
+  <si>
+    <t>Excalibur (Destreza Finesse Pack)</t>
+  </si>
+  <si>
+    <t>Excalibur (Gazal Complete Collection)</t>
+  </si>
+  <si>
+    <t>Hydroid (Update 13 Mega Pack)</t>
+  </si>
+  <si>
+    <t>Inaros (Sands of Inaros Bundle)</t>
+  </si>
+  <si>
+    <t>Ivara (Huntress Bundle)</t>
+  </si>
+  <si>
+    <t>Limbo (bundle)</t>
+  </si>
+  <si>
+    <t>Mesa (Gunslinger Bundle)</t>
+  </si>
+  <si>
+    <t>Mirage (bundle)</t>
+  </si>
+  <si>
+    <t>Nekros (Update 10 Mega Bundle)</t>
+  </si>
+  <si>
+    <t>Nidus (collection)</t>
+  </si>
+  <si>
+    <t>Oberon (Paladin Bundle)</t>
+  </si>
+  <si>
+    <t>Octavia (collection)</t>
+  </si>
+  <si>
+    <t>Titania (The Silver Grove Bundle)</t>
+  </si>
+  <si>
+    <t>Valkyr (Berserker Bundle)</t>
+  </si>
+  <si>
+    <t>Zephyr (Update 12 Mega Bundle)</t>
+  </si>
+  <si>
+    <t>ash-alt</t>
+  </si>
+  <si>
+    <t>banshee-alt</t>
+  </si>
+  <si>
+    <t>ember-alt</t>
+  </si>
+  <si>
+    <t>excalibur-alt</t>
+  </si>
+  <si>
+    <t>frost-alt</t>
+  </si>
+  <si>
+    <t>loki-alt</t>
+  </si>
+  <si>
+    <t>mag-alt</t>
+  </si>
+  <si>
+    <t>mesa-alt</t>
+  </si>
+  <si>
+    <t>nyx-alt</t>
+  </si>
+  <si>
+    <t>rhino-alt</t>
+  </si>
+  <si>
+    <t>saryn-alt</t>
+  </si>
+  <si>
+    <t>trinity-alt</t>
+  </si>
+  <si>
+    <t>volt-alt</t>
+  </si>
+  <si>
+    <t>atlas-bundle</t>
+  </si>
+  <si>
+    <t>chroma-bundle</t>
+  </si>
+  <si>
+    <t>equinox-bundle</t>
+  </si>
+  <si>
+    <t>excalibur-bundle</t>
+  </si>
+  <si>
+    <t>hydroid-bundle</t>
+  </si>
+  <si>
+    <t>inaros-bundle</t>
+  </si>
+  <si>
+    <t>ivara-bundle</t>
+  </si>
+  <si>
+    <t>limbo-bundle</t>
+  </si>
+  <si>
+    <t>mesa-bundle</t>
+  </si>
+  <si>
+    <t>mirage-bundle</t>
+  </si>
+  <si>
+    <t>nekros-bundle</t>
+  </si>
+  <si>
+    <t>nidus-bundle</t>
+  </si>
+  <si>
+    <t>oberon-bundle</t>
+  </si>
+  <si>
+    <t>octavia-bundle</t>
+  </si>
+  <si>
+    <t>titania-bundle</t>
+  </si>
+  <si>
+    <t>valkyr-bundle</t>
+  </si>
+  <si>
+    <t>zephyr-bundle</t>
   </si>
 </sst>
 </file>
@@ -2000,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105:J119"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2027,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2041,7 +1735,7 @@
       </c>
       <c r="J1" s="1" t="str">
         <f t="shared" ref="J1:J64" si="0">A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1</f>
-        <v>"0 miscellaneousflair ": "",</v>
+        <v>"0 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2052,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -2066,7 +1760,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"1 miscellaneousflair ": "",</v>
+        <v>"1 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2077,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -2091,7 +1785,7 @@
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"2 miscellaneousflair ": "",</v>
+        <v>"2 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2102,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -2116,7 +1810,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"3 miscellaneousflair ": "",</v>
+        <v>"3 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2127,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -2141,7 +1835,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"4 miscellaneousflair ": "",</v>
+        <v>"4 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2152,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -2166,7 +1860,7 @@
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"5 miscellaneousflair ": "",</v>
+        <v>"5 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2177,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -2191,7 +1885,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"6 miscellaneousflair ": "",</v>
+        <v>"6 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2202,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -2216,7 +1910,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"7 miscellaneousflair ": "",</v>
+        <v>"7 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2227,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
@@ -2241,7 +1935,7 @@
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"8 miscellaneousflair ": "",</v>
+        <v>"8 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2252,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
@@ -2266,7 +1960,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"9 miscellaneousflair ": "",</v>
+        <v>"9 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2277,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
@@ -2291,7 +1985,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"10 miscellaneousflair ": "",</v>
+        <v>"10 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2302,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -2316,7 +2010,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"11 miscellaneousflair ": "",</v>
+        <v>"11 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2327,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>0</v>
@@ -2341,7 +2035,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"12 miscellaneousflair ": "",</v>
+        <v>"12 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2352,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
@@ -2366,7 +2060,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"13 miscellaneousflair ": "",</v>
+        <v>"13 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2377,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
@@ -2391,7 +2085,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"14 miscellaneousflair ": "",</v>
+        <v>"14 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2402,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
@@ -2416,7 +2110,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"15 miscellaneousflair ": "",</v>
+        <v>"15 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2427,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
@@ -2441,7 +2135,7 @@
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"16 miscellaneousflair ": "",</v>
+        <v>"16 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2452,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -2466,7 +2160,7 @@
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"17 miscellaneousflair ": "",</v>
+        <v>"17 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2477,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
@@ -2491,7 +2185,7 @@
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"18 miscellaneousflair ": "",</v>
+        <v>"18 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2502,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>0</v>
@@ -2516,7 +2210,7 @@
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"19 miscellaneousflair ": "",</v>
+        <v>"19 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -2527,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>0</v>
@@ -2541,7 +2235,7 @@
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"20 miscellaneousflair ": "",</v>
+        <v>"20 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -2552,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
@@ -2566,7 +2260,7 @@
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"21 miscellaneousflair ": "",</v>
+        <v>"21 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -2577,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
@@ -2591,7 +2285,7 @@
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"22 miscellaneousflair ": "",</v>
+        <v>"22 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2602,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
@@ -2616,7 +2310,7 @@
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"23 miscellaneousflair ": "",</v>
+        <v>"23 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2627,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>0</v>
@@ -2641,7 +2335,7 @@
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"24 miscellaneousflair ": "",</v>
+        <v>"24 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2652,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>0</v>
@@ -2665,7 +2359,7 @@
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"25 miscellaneousflair ": "",</v>
+        <v>"25 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2676,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -2689,7 +2383,7 @@
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"26 miscellaneousflair ": "",</v>
+        <v>"26 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2700,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
@@ -2713,7 +2407,7 @@
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"27 miscellaneousflair ": "",</v>
+        <v>"27 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -2724,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>0</v>
@@ -2738,7 +2432,7 @@
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"28 miscellaneousflair ": "",</v>
+        <v>"28 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -2749,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>0</v>
@@ -2763,7 +2457,7 @@
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"29 miscellaneousflair ": "",</v>
+        <v>"29 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2774,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
@@ -2788,7 +2482,7 @@
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"30 miscellaneousflair ": "",</v>
+        <v>"30 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -2799,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>0</v>
@@ -2812,7 +2506,7 @@
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"31 miscellaneousflair ": "",</v>
+        <v>"31 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2823,22 +2517,26 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"32 miscellaneousflair ": "",</v>
+        <v>"32 regularwarframesflair ash-alt": "Ash (alternate picture)",</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2849,22 +2547,26 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"33 miscellaneousflair ": "",</v>
+        <v>"33 regularwarframesflair banshee-alt": "Banshee (alternate picture)",</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2875,22 +2577,26 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"34 miscellaneousflair ": "",</v>
+        <v>"34 regularwarframesflair ember-alt": "Ember (alternate picture)",</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2901,22 +2607,26 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="H36" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"35 miscellaneousflair ": "",</v>
+        <v>"35 regularwarframesflair excalibur-alt": "Excalibur (alternate picture)",</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2927,22 +2637,26 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="H37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"36 miscellaneousflair ": "",</v>
+        <v>"36 regularwarframesflair frost-alt": "Frost (alternate picture)",</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2953,26 +2667,26 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"37 miscellaneousflair ayatan-valana-sculpture": "Ayatan Valana sculpture",</v>
+        <v>"37 regularwarframesflair loki-alt": "Loki (alternate picture)",</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2983,26 +2697,26 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"38 miscellaneousflair ayatan-amber-star": "Ayatan amber star",</v>
+        <v>"38 regularwarframesflair mag-alt": "Mag (alternate picture)",</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -3013,26 +2727,26 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"39 miscellaneousflair ayatan-cyan-star": "Ayatan cyan star",</v>
+        <v>"39 regularwarframesflair mesa-alt": "Mesa (alternate picture)",</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -3043,26 +2757,26 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"40 miscellaneousflair ghost-clan-emblem": "Ghost clan emblem",</v>
+        <v>"40 regularwarframesflair nyx-alt": "Nyx (alternate picture)",</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -3073,26 +2787,26 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"41 miscellaneousflair shadow-clan-emblem": "Shadow clan emblem",</v>
+        <v>"41 regularwarframesflair rhino-alt": "Rhino (alternate picture)",</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -3103,26 +2817,26 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"42 miscellaneousflair storm-clan-emblem": "Storm clan emblem",</v>
+        <v>"42 regularwarframesflair saryn-alt": "Saryn (alternate picture)",</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -3133,26 +2847,26 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"43 miscellaneousflair mountain-clan-emblem": "Mountain clan emblem",</v>
+        <v>"43 regularwarframesflair trinity-alt": "Trinity (alternate picture)",</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -3163,26 +2877,26 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"44 miscellaneousflair moon-clan-emblem": "Moon clan emblem",</v>
+        <v>"44 regularwarframesflair volt-alt": "Volt (alternate picture)",</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -3193,26 +2907,26 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"45 miscellaneousflair kuria": "Kuria",</v>
+        <v>"45 regularwarframesflair atlas-bundle": "Atlas (Brawler Bundle)",</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -3223,26 +2937,26 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"46 miscellaneousflair sacred-vessel": "Sacred vessel",</v>
+        <v>"46 regularwarframesflair chroma-bundle": "Chroma (Dragon Bundle)",</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -3253,26 +2967,26 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"47 miscellaneousflair argon-crystal": "Argon crystal",</v>
+        <v>"47 regularwarframesflair equinox-bundle": "Equinox (Mega Pack)",</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -3283,26 +2997,26 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"48 miscellaneousflair credits": "Credits",</v>
+        <v>"48 regularwarframesflair excalibur-bundle": "Excalibur (Continuity Collection)",</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -3313,26 +3027,26 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"49 miscellaneousflair ducats": "Ducats",</v>
+        <v>"49 regularwarframesflair excalibur-bundle": "Excalibur (Destreza Finesse Pack)",</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -3343,26 +3057,26 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"50 miscellaneousflair endo": "Endo",</v>
+        <v>"50 regularwarframesflair excalibur-bundle": "Excalibur (Gazal Complete Collection)",</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -3373,26 +3087,26 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"51 miscellaneousflair exilus-adapter": "Exilus adapter",</v>
+        <v>"51 regularwarframesflair hydroid-bundle": "Hydroid (Update 13 Mega Pack)",</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -3403,26 +3117,26 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"52 miscellaneousflair kubrow-egg": "Kubrow egg",</v>
+        <v>"52 regularwarframesflair inaros-bundle": "Inaros (Sands of Inaros Bundle)",</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -3433,26 +3147,26 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"53 miscellaneousflair kuva": "Kuva",</v>
+        <v>"53 regularwarframesflair ivara-bundle": "Ivara (Huntress Bundle)",</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -3463,26 +3177,26 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"54 miscellaneousflair legendary-core": "Legendary core",</v>
+        <v>"54 regularwarframesflair limbo-bundle": "Limbo (bundle)",</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -3493,26 +3207,26 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"55 miscellaneousflair module": "Module",</v>
+        <v>"55 regularwarframesflair mesa-bundle": "Mesa (Gunslinger Bundle)",</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -3523,26 +3237,26 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"56 miscellaneousflair platinum": "Platinum",</v>
+        <v>"56 regularwarframesflair mirage-bundle": "Mirage (bundle)",</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -3553,26 +3267,26 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"57 miscellaneousflair void-trace": "Void trace",</v>
+        <v>"57 regularwarframesflair nekros-bundle": "Nekros (Update 10 Mega Bundle)",</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -3583,26 +3297,26 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"58 miscellaneousflair maxim-medallion": "Maxim medallion",</v>
+        <v>"58 regularwarframesflair nidus-bundle": "Nidus (collection)",</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -3613,26 +3327,26 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"59 miscellaneousflair genius-datum": "Genius datum",</v>
+        <v>"59 regularwarframesflair oberon-bundle": "Oberon (Paladin Bundle)",</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -3643,26 +3357,26 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"60 miscellaneousflair flawless-seed": "Flawless seed",</v>
+        <v>"60 regularwarframesflair octavia-bundle": "Octavia (collection)",</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -3673,26 +3387,26 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"61 miscellaneousflair partner-quittance": "Partner quittance",</v>
+        <v>"61 regularwarframesflair titania-bundle": "Titania (The Silver Grove Bundle)",</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -3703,26 +3417,26 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"62 miscellaneousflair exalted-mark": "Exalted mark",</v>
+        <v>"62 regularwarframesflair valkyr-bundle": "Valkyr (Berserker Bundle)",</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3733,26 +3447,26 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"63 miscellaneousflair general-insignia": "General insignia",</v>
+        <v>"63 regularwarframesflair zephyr-bundle": "Zephyr (Update 12 Mega Bundle)",</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3763,26 +3477,21 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>467</v>
-      </c>
+      <c r="G65" s="3"/>
       <c r="H65" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" ref="J65:J128" si="1">A65&amp;B65&amp;C65&amp;D65&amp;E65&amp;F65&amp;G65&amp;H65</f>
-        <v>"64 miscellaneousflair medallion": "Medallion",</v>
+        <v>"64 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -3793,26 +3502,21 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>468</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"65 miscellaneousflair datum": "Datum",</v>
+        <v>"65 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3823,26 +3527,21 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="F67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>469</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"66 miscellaneousflair seed": "Seed",</v>
+        <v>"66 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -3853,26 +3552,21 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="F68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>470</v>
-      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"67 miscellaneousflair quittance": "Quittance",</v>
+        <v>"67 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -3883,26 +3577,21 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="F69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>471</v>
-      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"68 miscellaneousflair mark": "Mark",</v>
+        <v>"68 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3913,26 +3602,21 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="F70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"69 miscellaneousflair insignia": "Insignia",</v>
+        <v>"69 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -3943,26 +3627,21 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="F71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>372</v>
-      </c>
+      <c r="G71" s="3"/>
       <c r="H71" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"70 miscellaneousflair liset-prime": "Liset Prime",</v>
+        <v>"70 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -3973,26 +3652,21 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="F72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"71 miscellaneousflair liset": "Liset",</v>
+        <v>"71 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -4003,26 +3677,21 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"72 miscellaneousflair mantis": "Mantis",</v>
+        <v>"72 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -4033,26 +3702,21 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="F74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="G74" s="3"/>
       <c r="H74" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"73 miscellaneousflair scimitar": "Scimitar",</v>
+        <v>"73 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -4063,26 +3727,21 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="F75" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>376</v>
-      </c>
+      <c r="G75" s="3"/>
       <c r="H75" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"74 miscellaneousflair xiphos": "Xiphos",</v>
+        <v>"74 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -4093,26 +3752,21 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="F76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"75 miscellaneousflair liset-day-of-the-dead-skin": "Liset Day of the Dead skin (Halloween exclusive)",</v>
+        <v>"75 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -4123,26 +3777,21 @@
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="F77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>378</v>
-      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"76 miscellaneousflair liset-hellkite-skin": "Liset Hellkite skin",</v>
+        <v>"76 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -4153,26 +3802,21 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="F78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>379</v>
-      </c>
+      <c r="G78" s="3"/>
       <c r="H78" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"77 miscellaneousflair liset-hima-skin": "Liset Hima skin",</v>
+        <v>"77 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -4183,26 +3827,21 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F79" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"78 miscellaneousflair liset-jade-skin": "Liset Jade skin (XB1 exclusive)",</v>
+        <v>"78 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -4213,26 +3852,21 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="F80" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>381</v>
-      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"79 miscellaneousflair liset-kotara-skin": "Liset Kotara skin",</v>
+        <v>"79 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -4243,26 +3877,21 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="F81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="G81" s="3"/>
       <c r="H81" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"80 miscellaneousflair liset-kuva-skin": "Liset Kuva skin",</v>
+        <v>"80 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -4273,26 +3902,21 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="F82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"81 miscellaneousflair liset-kuza-skin": "Liset Kuza skin",</v>
+        <v>"81 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -4303,26 +3927,21 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="F83" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>384</v>
-      </c>
+      <c r="G83" s="3"/>
       <c r="H83" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"82 miscellaneousflair liset-maltzer-oculus-skin": "Liset Maltzer Oculus skin",</v>
+        <v>"82 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -4333,26 +3952,21 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="F84" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"83 miscellaneousflair liset-obsidian-skin": "Liset Obsidian skin",</v>
+        <v>"83 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4363,26 +3977,21 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="F85" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"84 miscellaneousflair liset-pahta-skin": "Liset Pahta skin",</v>
+        <v>"84 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -4393,26 +4002,21 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="F86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="G86" s="3"/>
       <c r="H86" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"85 miscellaneousflair liset-prisma-skin": "Liset Prisma skin",</v>
+        <v>"85 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4423,26 +4027,21 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="F87" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="G87" s="3"/>
       <c r="H87" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"86 miscellaneousflair liset-quilate-skin": "Liset Quilate skin",</v>
+        <v>"86 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4453,26 +4052,21 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="F88" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="G88" s="3"/>
       <c r="H88" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"87 miscellaneousflair liset-zikha-skin": "Liset Zikha skin",</v>
+        <v>"87 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -4483,26 +4077,21 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="F89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="G89" s="3"/>
       <c r="H89" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"88 miscellaneousflair mantis-bajada-skin": "Mantis Bajada skin",</v>
+        <v>"88 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -4513,26 +4102,21 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="F90" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="G90" s="3"/>
       <c r="H90" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"89 miscellaneousflair mantis-day-of-the-dead-skin": "Mantis Day of the Dead skin (Halloween exclusive)",</v>
+        <v>"89 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4543,26 +4127,21 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="F91" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="G91" s="3"/>
       <c r="H91" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"90 miscellaneousflair mantis-gloam-skin": "Mantis Gloam skin",</v>
+        <v>"90 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -4573,26 +4152,21 @@
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="F92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="G92" s="3"/>
       <c r="H92" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"91 miscellaneousflair mantis-kuva-skin": "Mantis Kuva skin",</v>
+        <v>"91 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4603,26 +4177,21 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="F93" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="G93" s="3"/>
       <c r="H93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"92 miscellaneousflair mantis-oscuro-skin": "Mantis Oscuro skin",</v>
+        <v>"92 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -4633,26 +4202,21 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="F94" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="G94" s="3"/>
       <c r="H94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"93 miscellaneousflair mantis-prisma-skin": "Mantis Prisma skin",</v>
+        <v>"93 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4663,26 +4227,21 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="G95" s="3"/>
       <c r="H95" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"94 miscellaneousflair scimitar-echo-skin": "Scimitar Echo skin",</v>
+        <v>"94 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -4693,26 +4252,21 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="F96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"95 miscellaneousflair scimitar-kuva-skin": "Scimitar Kuva skin",</v>
+        <v>"95 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -4723,26 +4277,21 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="F97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="G97" s="3"/>
       <c r="H97" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"96 miscellaneousflair scimitar-magus-skin": "Scimitar Magus skin",</v>
+        <v>"96 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -4753,26 +4302,21 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="F98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="G98" s="3"/>
       <c r="H98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"97 miscellaneousflair scimitar-nami-skin": "Scimitar Nami skin",</v>
+        <v>"97 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4783,26 +4327,21 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="F99" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="G99" s="3"/>
       <c r="H99" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"98 miscellaneousflair scimitar-prisma-skin": "Scimitar Prisma skin",</v>
+        <v>"98 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -4813,26 +4352,21 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="F100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>401</v>
-      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"99 miscellaneousflair scimitar-sotz-skin": "Scimitar Sotz skin",</v>
+        <v>"99 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
@@ -4843,26 +4377,21 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F101" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="G101" s="3"/>
       <c r="H101" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"100 miscellaneousflair xiphos-henipa-skin": "Xiphos Henipa skin",</v>
+        <v>"100 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
@@ -4873,26 +4402,21 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="F102" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="G102" s="3"/>
       <c r="H102" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"101 miscellaneousflair xiphos-ifrit-skin": "Xiphos Ifrit skin",</v>
+        <v>"101 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -4903,26 +4427,21 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="F103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="G103" s="3"/>
       <c r="H103" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"102 miscellaneousflair xiphos-kuva-skin": "Xiphos Kuva skin",</v>
+        <v>"102 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -4933,26 +4452,21 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="F104" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"103 miscellaneousflair xiphos-prisma-skin": "Xiphos Prisma skin",</v>
+        <v>"103 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
@@ -4963,26 +4477,21 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="F105" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>506</v>
-      </c>
+      <c r="G105" s="3"/>
       <c r="H105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"104 miscellaneousflair moon-icon": "Moon icon",</v>
+        <v>"104 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -4993,26 +4502,21 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="F106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>507</v>
-      </c>
+      <c r="G106" s="3"/>
       <c r="H106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"105 miscellaneousflair sun-icon": "Sun icon",</v>
+        <v>"105 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -5023,26 +4527,21 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="F107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>508</v>
-      </c>
+      <c r="G107" s="3"/>
       <c r="H107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"106 miscellaneousflair impact-damage-icon": "Impact damage icon",</v>
+        <v>"106 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
@@ -5053,26 +4552,21 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="F108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>509</v>
-      </c>
+      <c r="G108" s="3"/>
       <c r="H108" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"107 miscellaneousflair puncture-damage-icon": "Puncture damage icon",</v>
+        <v>"107 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -5083,26 +4577,21 @@
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="F109" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>510</v>
-      </c>
+      <c r="G109" s="3"/>
       <c r="H109" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"108 miscellaneousflair slash-damage-icon": "Slash damage icon",</v>
+        <v>"108 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -5113,26 +4602,21 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="F110" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>511</v>
-      </c>
+      <c r="G110" s="3"/>
       <c r="H110" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"109 miscellaneousflair cold-damage-icon": "Cold damage icon",</v>
+        <v>"109 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -5143,26 +4627,21 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="F111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>512</v>
-      </c>
+      <c r="G111" s="3"/>
       <c r="H111" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"110 miscellaneousflair electricity-damage-icon": "Electricity damage icon",</v>
+        <v>"110 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
@@ -5173,26 +4652,21 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="F112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>513</v>
-      </c>
+      <c r="G112" s="3"/>
       <c r="H112" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"111 miscellaneousflair heat-damage-icon": "Heat damage icon",</v>
+        <v>"111 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -5203,26 +4677,21 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="F113" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>514</v>
-      </c>
+      <c r="G113" s="3"/>
       <c r="H113" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"112 miscellaneousflair toxin-damage-icon": "Toxin damage icon",</v>
+        <v>"112 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -5233,26 +4702,21 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="F114" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>515</v>
-      </c>
+      <c r="G114" s="3"/>
       <c r="H114" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"113 miscellaneousflair blast-damage-icon": "Blast damage icon",</v>
+        <v>"113 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -5263,26 +4727,21 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="F115" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>516</v>
-      </c>
+      <c r="G115" s="3"/>
       <c r="H115" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"114 miscellaneousflair corrosive-damage-icon": "Corrosive damage icon",</v>
+        <v>"114 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -5293,26 +4752,21 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="F116" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>517</v>
-      </c>
+      <c r="G116" s="3"/>
       <c r="H116" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"115 miscellaneousflair gas-damage-icon": "Gas damage icon",</v>
+        <v>"115 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -5323,26 +4777,21 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="F117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>518</v>
-      </c>
+      <c r="G117" s="3"/>
       <c r="H117" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"116 miscellaneousflair magnetic-damage-icon": "Magnetic damage icon",</v>
+        <v>"116 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -5353,26 +4802,21 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="F118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>519</v>
-      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"117 miscellaneousflair radiation-damage-icon": "Radiation damage icon",</v>
+        <v>"117 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -5383,26 +4827,21 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="F119" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="G119" s="3"/>
       <c r="H119" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"118 miscellaneousflair viral-damage-icon": "Viral damage icon",</v>
+        <v>"118 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -5413,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>0</v>
@@ -5426,7 +4865,7 @@
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"119 miscellaneousflair ": "",</v>
+        <v>"119 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -5437,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>0</v>
@@ -5450,7 +4889,7 @@
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"120 miscellaneousflair ": "",</v>
+        <v>"120 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -5461,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>0</v>
@@ -5474,7 +4913,7 @@
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"121 miscellaneousflair ": "",</v>
+        <v>"121 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -5485,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>0</v>
@@ -5498,7 +4937,7 @@
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"122 miscellaneousflair ": "",</v>
+        <v>"122 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -5509,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>0</v>
@@ -5522,7 +4961,7 @@
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"123 miscellaneousflair ": "",</v>
+        <v>"123 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -5533,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>0</v>
@@ -5546,7 +4985,7 @@
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"124 miscellaneousflair ": "",</v>
+        <v>"124 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -5557,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>0</v>
@@ -5570,7 +5009,7 @@
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"125 miscellaneousflair ": "",</v>
+        <v>"125 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -5581,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>0</v>
@@ -5594,7 +5033,7 @@
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"126 miscellaneousflair ": "",</v>
+        <v>"126 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -5605,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>0</v>
@@ -5618,7 +5057,7 @@
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>"127 miscellaneousflair ": "",</v>
+        <v>"127 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -5629,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>0</v>
@@ -5642,7 +5081,7 @@
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" ref="J129:J152" si="2">A129&amp;B129&amp;C129&amp;D129&amp;E129&amp;F129&amp;G129&amp;H129</f>
-        <v>"128 miscellaneousflair ": "",</v>
+        <v>"128 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -5653,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>0</v>
@@ -5666,7 +5105,7 @@
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"129 miscellaneousflair ": "",</v>
+        <v>"129 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -5677,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>0</v>
@@ -5690,7 +5129,7 @@
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"130 miscellaneousflair ": "",</v>
+        <v>"130 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -5701,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>0</v>
@@ -5714,7 +5153,7 @@
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"131 miscellaneousflair ": "",</v>
+        <v>"131 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -5725,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>0</v>
@@ -5738,7 +5177,7 @@
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"132 miscellaneousflair ": "",</v>
+        <v>"132 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -5749,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>0</v>
@@ -5762,7 +5201,7 @@
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"133 miscellaneousflair ": "",</v>
+        <v>"133 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -5773,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>0</v>
@@ -5786,7 +5225,7 @@
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"134 miscellaneousflair ": "",</v>
+        <v>"134 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -5797,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>0</v>
@@ -5810,7 +5249,7 @@
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"135 miscellaneousflair ": "",</v>
+        <v>"135 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
@@ -5821,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>0</v>
@@ -5834,7 +5273,7 @@
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"136 miscellaneousflair ": "",</v>
+        <v>"136 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
@@ -5845,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>0</v>
@@ -5858,7 +5297,7 @@
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"137 miscellaneousflair ": "",</v>
+        <v>"137 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -5869,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>0</v>
@@ -5882,7 +5321,7 @@
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"138 miscellaneousflair ": "",</v>
+        <v>"138 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -5893,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>0</v>
@@ -5906,7 +5345,7 @@
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"139 miscellaneousflair ": "",</v>
+        <v>"139 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -5917,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>0</v>
@@ -5930,7 +5369,7 @@
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"140 miscellaneousflair ": "",</v>
+        <v>"140 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -5941,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>0</v>
@@ -5954,7 +5393,7 @@
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"141 miscellaneousflair ": "",</v>
+        <v>"141 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -5965,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>0</v>
@@ -5978,7 +5417,7 @@
       </c>
       <c r="J143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"142 miscellaneousflair ": "",</v>
+        <v>"142 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -5989,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>0</v>
@@ -6002,7 +5441,7 @@
       </c>
       <c r="J144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"143 miscellaneousflair ": "",</v>
+        <v>"143 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
@@ -6013,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>0</v>
@@ -6026,7 +5465,7 @@
       </c>
       <c r="J145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"144 miscellaneousflair ": "",</v>
+        <v>"144 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
@@ -6037,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>0</v>
@@ -6050,7 +5489,7 @@
       </c>
       <c r="J146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"145 miscellaneousflair ": "",</v>
+        <v>"145 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
@@ -6061,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>0</v>
@@ -6074,7 +5513,7 @@
       </c>
       <c r="J147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"146 miscellaneousflair ": "",</v>
+        <v>"146 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
@@ -6085,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>0</v>
@@ -6098,7 +5537,7 @@
       </c>
       <c r="J148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"147 miscellaneousflair ": "",</v>
+        <v>"147 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
@@ -6109,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>0</v>
@@ -6122,7 +5561,7 @@
       </c>
       <c r="J149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"148 miscellaneousflair ": "",</v>
+        <v>"148 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
@@ -6133,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>0</v>
@@ -6146,7 +5585,7 @@
       </c>
       <c r="J150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"149 miscellaneousflair ": "",</v>
+        <v>"149 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -6157,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>0</v>
@@ -6170,7 +5609,7 @@
       </c>
       <c r="J151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"150 miscellaneousflair ": "",</v>
+        <v>"150 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
@@ -6181,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>0</v>
@@ -6194,7 +5633,7 @@
       </c>
       <c r="J152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>"151 miscellaneousflair ": "",</v>
+        <v>"151 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
@@ -6205,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>0</v>
@@ -6217,8 +5656,8 @@
         <v>105</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f>A153&amp;B153&amp;C153&amp;D153&amp;E153&amp;F153&amp;G153&amp;H153</f>
-        <v>"152 miscellaneousflair ": "",</v>
+        <f t="shared" ref="J153:J184" si="3">A153&amp;B153&amp;C153&amp;D153&amp;E153&amp;F153&amp;G153&amp;H153</f>
+        <v>"152 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
@@ -6229,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>0</v>
@@ -6241,8 +5680,8 @@
         <v>105</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f>A154&amp;B154&amp;C154&amp;D154&amp;E154&amp;F154&amp;G154&amp;H154</f>
-        <v>"153 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"153 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
@@ -6253,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>0</v>
@@ -6265,8 +5704,8 @@
         <v>105</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f>A155&amp;B155&amp;C155&amp;D155&amp;E155&amp;F155&amp;G155&amp;H155</f>
-        <v>"154 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"154 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
@@ -6277,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>0</v>
@@ -6289,8 +5728,8 @@
         <v>105</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f>A156&amp;B156&amp;C156&amp;D156&amp;E156&amp;F156&amp;G156&amp;H156</f>
-        <v>"155 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"155 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
@@ -6301,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>0</v>
@@ -6313,8 +5752,8 @@
         <v>105</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f>A157&amp;B157&amp;C157&amp;D157&amp;E157&amp;F157&amp;G157&amp;H157</f>
-        <v>"156 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"156 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
@@ -6325,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>0</v>
@@ -6337,8 +5776,8 @@
         <v>105</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f>A158&amp;B158&amp;C158&amp;D158&amp;E158&amp;F158&amp;G158&amp;H158</f>
-        <v>"157 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"157 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
@@ -6349,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>0</v>
@@ -6361,8 +5800,8 @@
         <v>105</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f>A159&amp;B159&amp;C159&amp;D159&amp;E159&amp;F159&amp;G159&amp;H159</f>
-        <v>"158 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"158 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
@@ -6373,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>0</v>
@@ -6385,8 +5824,8 @@
         <v>105</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f>A160&amp;B160&amp;C160&amp;D160&amp;E160&amp;F160&amp;G160&amp;H160</f>
-        <v>"159 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"159 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -6397,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>0</v>
@@ -6409,8 +5848,8 @@
         <v>105</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f>A161&amp;B161&amp;C161&amp;D161&amp;E161&amp;F161&amp;G161&amp;H161</f>
-        <v>"160 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"160 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -6421,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>0</v>
@@ -6433,8 +5872,8 @@
         <v>105</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f>A162&amp;B162&amp;C162&amp;D162&amp;E162&amp;F162&amp;G162&amp;H162</f>
-        <v>"161 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"161 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
@@ -6445,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>0</v>
@@ -6457,8 +5896,8 @@
         <v>105</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f>A163&amp;B163&amp;C163&amp;D163&amp;E163&amp;F163&amp;G163&amp;H163</f>
-        <v>"162 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"162 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
@@ -6469,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>0</v>
@@ -6481,8 +5920,8 @@
         <v>105</v>
       </c>
       <c r="J164" s="1" t="str">
-        <f>A164&amp;B164&amp;C164&amp;D164&amp;E164&amp;F164&amp;G164&amp;H164</f>
-        <v>"163 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"163 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
@@ -6493,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>0</v>
@@ -6505,8 +5944,8 @@
         <v>105</v>
       </c>
       <c r="J165" s="1" t="str">
-        <f>A165&amp;B165&amp;C165&amp;D165&amp;E165&amp;F165&amp;G165&amp;H165</f>
-        <v>"164 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"164 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
@@ -6517,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>0</v>
@@ -6529,8 +5968,8 @@
         <v>105</v>
       </c>
       <c r="J166" s="1" t="str">
-        <f>A166&amp;B166&amp;C166&amp;D166&amp;E166&amp;F166&amp;G166&amp;H166</f>
-        <v>"165 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"165 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
@@ -6541,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>0</v>
@@ -6553,8 +5992,8 @@
         <v>105</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f>A167&amp;B167&amp;C167&amp;D167&amp;E167&amp;F167&amp;G167&amp;H167</f>
-        <v>"166 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"166 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
@@ -6565,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>0</v>
@@ -6577,8 +6016,8 @@
         <v>105</v>
       </c>
       <c r="J168" s="1" t="str">
-        <f>A168&amp;B168&amp;C168&amp;D168&amp;E168&amp;F168&amp;G168&amp;H168</f>
-        <v>"167 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"167 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
@@ -6589,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>0</v>
@@ -6601,8 +6040,8 @@
         <v>105</v>
       </c>
       <c r="J169" s="1" t="str">
-        <f>A169&amp;B169&amp;C169&amp;D169&amp;E169&amp;F169&amp;G169&amp;H169</f>
-        <v>"168 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"168 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
@@ -6613,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>0</v>
@@ -6625,8 +6064,8 @@
         <v>105</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f>A170&amp;B170&amp;C170&amp;D170&amp;E170&amp;F170&amp;G170&amp;H170</f>
-        <v>"169 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"169 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
@@ -6637,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>0</v>
@@ -6649,8 +6088,8 @@
         <v>105</v>
       </c>
       <c r="J171" s="1" t="str">
-        <f>A171&amp;B171&amp;C171&amp;D171&amp;E171&amp;F171&amp;G171&amp;H171</f>
-        <v>"170 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"170 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
@@ -6661,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>0</v>
@@ -6673,8 +6112,8 @@
         <v>105</v>
       </c>
       <c r="J172" s="1" t="str">
-        <f>A172&amp;B172&amp;C172&amp;D172&amp;E172&amp;F172&amp;G172&amp;H172</f>
-        <v>"171 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"171 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
@@ -6685,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>0</v>
@@ -6697,8 +6136,8 @@
         <v>105</v>
       </c>
       <c r="J173" s="1" t="str">
-        <f>A173&amp;B173&amp;C173&amp;D173&amp;E173&amp;F173&amp;G173&amp;H173</f>
-        <v>"172 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"172 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
@@ -6709,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>0</v>
@@ -6721,8 +6160,8 @@
         <v>105</v>
       </c>
       <c r="J174" s="1" t="str">
-        <f>A174&amp;B174&amp;C174&amp;D174&amp;E174&amp;F174&amp;G174&amp;H174</f>
-        <v>"173 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"173 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
@@ -6733,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>0</v>
@@ -6745,8 +6184,8 @@
         <v>105</v>
       </c>
       <c r="J175" s="1" t="str">
-        <f>A175&amp;B175&amp;C175&amp;D175&amp;E175&amp;F175&amp;G175&amp;H175</f>
-        <v>"174 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"174 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
@@ -6757,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>0</v>
@@ -6769,8 +6208,8 @@
         <v>105</v>
       </c>
       <c r="J176" s="1" t="str">
-        <f>A176&amp;B176&amp;C176&amp;D176&amp;E176&amp;F176&amp;G176&amp;H176</f>
-        <v>"175 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"175 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
@@ -6781,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>0</v>
@@ -6793,8 +6232,8 @@
         <v>105</v>
       </c>
       <c r="J177" s="1" t="str">
-        <f>A177&amp;B177&amp;C177&amp;D177&amp;E177&amp;F177&amp;G177&amp;H177</f>
-        <v>"176 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"176 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
@@ -6805,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -6817,8 +6256,8 @@
         <v>105</v>
       </c>
       <c r="J178" s="1" t="str">
-        <f>A178&amp;B178&amp;C178&amp;D178&amp;E178&amp;F178&amp;G178&amp;H178</f>
-        <v>"177 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"177 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
@@ -6829,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>0</v>
@@ -6841,8 +6280,8 @@
         <v>105</v>
       </c>
       <c r="J179" s="1" t="str">
-        <f>A179&amp;B179&amp;C179&amp;D179&amp;E179&amp;F179&amp;G179&amp;H179</f>
-        <v>"178 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"178 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -6853,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>0</v>
@@ -6865,8 +6304,8 @@
         <v>105</v>
       </c>
       <c r="J180" s="1" t="str">
-        <f>A180&amp;B180&amp;C180&amp;D180&amp;E180&amp;F180&amp;G180&amp;H180</f>
-        <v>"179 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"179 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
@@ -6877,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>0</v>
@@ -6889,8 +6328,8 @@
         <v>105</v>
       </c>
       <c r="J181" s="1" t="str">
-        <f>A181&amp;B181&amp;C181&amp;D181&amp;E181&amp;F181&amp;G181&amp;H181</f>
-        <v>"180 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"180 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
@@ -6901,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>0</v>
@@ -6913,8 +6352,8 @@
         <v>105</v>
       </c>
       <c r="J182" s="1" t="str">
-        <f>A182&amp;B182&amp;C182&amp;D182&amp;E182&amp;F182&amp;G182&amp;H182</f>
-        <v>"181 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"181 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
@@ -6925,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>0</v>
@@ -6937,8 +6376,8 @@
         <v>105</v>
       </c>
       <c r="J183" s="1" t="str">
-        <f>A183&amp;B183&amp;C183&amp;D183&amp;E183&amp;F183&amp;G183&amp;H183</f>
-        <v>"182 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"182 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -6949,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>0</v>
@@ -6961,8 +6400,8 @@
         <v>105</v>
       </c>
       <c r="J184" s="1" t="str">
-        <f>A184&amp;B184&amp;C184&amp;D184&amp;E184&amp;F184&amp;G184&amp;H184</f>
-        <v>"183 miscellaneousflair ": "",</v>
+        <f t="shared" si="3"/>
+        <v>"183 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
@@ -6973,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>0</v>
@@ -6985,8 +6424,8 @@
         <v>105</v>
       </c>
       <c r="J185" s="1" t="str">
-        <f>A185&amp;B185&amp;C185&amp;D185&amp;E185&amp;F185&amp;G185&amp;H185</f>
-        <v>"184 miscellaneousflair ": "",</v>
+        <f t="shared" ref="J185:J216" si="4">A185&amp;B185&amp;C185&amp;D185&amp;E185&amp;F185&amp;G185&amp;H185</f>
+        <v>"184 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
@@ -6997,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>0</v>
@@ -7009,8 +6448,8 @@
         <v>105</v>
       </c>
       <c r="J186" s="1" t="str">
-        <f>A186&amp;B186&amp;C186&amp;D186&amp;E186&amp;F186&amp;G186&amp;H186</f>
-        <v>"185 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"185 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -7021,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>0</v>
@@ -7033,8 +6472,8 @@
         <v>105</v>
       </c>
       <c r="J187" s="1" t="str">
-        <f>A187&amp;B187&amp;C187&amp;D187&amp;E187&amp;F187&amp;G187&amp;H187</f>
-        <v>"186 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"186 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
@@ -7045,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>0</v>
@@ -7057,8 +6496,8 @@
         <v>105</v>
       </c>
       <c r="J188" s="1" t="str">
-        <f>A188&amp;B188&amp;C188&amp;D188&amp;E188&amp;F188&amp;G188&amp;H188</f>
-        <v>"187 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"187 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
@@ -7069,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>0</v>
@@ -7081,8 +6520,8 @@
         <v>105</v>
       </c>
       <c r="J189" s="1" t="str">
-        <f>A189&amp;B189&amp;C189&amp;D189&amp;E189&amp;F189&amp;G189&amp;H189</f>
-        <v>"188 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"188 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
@@ -7093,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>0</v>
@@ -7105,8 +6544,8 @@
         <v>105</v>
       </c>
       <c r="J190" s="1" t="str">
-        <f>A190&amp;B190&amp;C190&amp;D190&amp;E190&amp;F190&amp;G190&amp;H190</f>
-        <v>"189 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"189 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -7117,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>0</v>
@@ -7129,8 +6568,8 @@
         <v>105</v>
       </c>
       <c r="J191" s="1" t="str">
-        <f>A191&amp;B191&amp;C191&amp;D191&amp;E191&amp;F191&amp;G191&amp;H191</f>
-        <v>"190 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"190 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -7141,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>0</v>
@@ -7153,8 +6592,8 @@
         <v>105</v>
       </c>
       <c r="J192" s="1" t="str">
-        <f>A192&amp;B192&amp;C192&amp;D192&amp;E192&amp;F192&amp;G192&amp;H192</f>
-        <v>"191 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"191 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
@@ -7165,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>0</v>
@@ -7177,8 +6616,8 @@
         <v>105</v>
       </c>
       <c r="J193" s="1" t="str">
-        <f>A193&amp;B193&amp;C193&amp;D193&amp;E193&amp;F193&amp;G193&amp;H193</f>
-        <v>"192 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"192 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
@@ -7189,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>0</v>
@@ -7201,8 +6640,8 @@
         <v>105</v>
       </c>
       <c r="J194" s="1" t="str">
-        <f>A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194&amp;G194&amp;H194</f>
-        <v>"193 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"193 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -7213,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>0</v>
@@ -7225,8 +6664,8 @@
         <v>105</v>
       </c>
       <c r="J195" s="1" t="str">
-        <f>A195&amp;B195&amp;C195&amp;D195&amp;E195&amp;F195&amp;G195&amp;H195</f>
-        <v>"194 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"194 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
@@ -7237,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>0</v>
@@ -7249,8 +6688,8 @@
         <v>105</v>
       </c>
       <c r="J196" s="1" t="str">
-        <f>A196&amp;B196&amp;C196&amp;D196&amp;E196&amp;F196&amp;G196&amp;H196</f>
-        <v>"195 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"195 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
@@ -7261,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>0</v>
@@ -7273,8 +6712,8 @@
         <v>105</v>
       </c>
       <c r="J197" s="1" t="str">
-        <f>A197&amp;B197&amp;C197&amp;D197&amp;E197&amp;F197&amp;G197&amp;H197</f>
-        <v>"196 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"196 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
@@ -7285,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>0</v>
@@ -7297,8 +6736,8 @@
         <v>105</v>
       </c>
       <c r="J198" s="1" t="str">
-        <f>A198&amp;B198&amp;C198&amp;D198&amp;E198&amp;F198&amp;G198&amp;H198</f>
-        <v>"197 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"197 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
@@ -7309,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>0</v>
@@ -7322,8 +6761,8 @@
         <v>105</v>
       </c>
       <c r="J199" s="1" t="str">
-        <f>A199&amp;B199&amp;C199&amp;D199&amp;E199&amp;F199&amp;G199&amp;H199</f>
-        <v>"198 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"198 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
@@ -7334,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>0</v>
@@ -7347,8 +6786,8 @@
         <v>105</v>
       </c>
       <c r="J200" s="1" t="str">
-        <f>A200&amp;B200&amp;C200&amp;D200&amp;E200&amp;F200&amp;G200&amp;H200</f>
-        <v>"199 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"199 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
@@ -7359,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>0</v>
@@ -7372,8 +6811,8 @@
         <v>105</v>
       </c>
       <c r="J201" s="1" t="str">
-        <f>A201&amp;B201&amp;C201&amp;D201&amp;E201&amp;F201&amp;G201&amp;H201</f>
-        <v>"200 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"200 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
@@ -7384,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>0</v>
@@ -7397,8 +6836,8 @@
         <v>105</v>
       </c>
       <c r="J202" s="1" t="str">
-        <f>A202&amp;B202&amp;C202&amp;D202&amp;E202&amp;F202&amp;G202&amp;H202</f>
-        <v>"201 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"201 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
@@ -7409,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>0</v>
@@ -7422,8 +6861,8 @@
         <v>105</v>
       </c>
       <c r="J203" s="1" t="str">
-        <f>A203&amp;B203&amp;C203&amp;D203&amp;E203&amp;F203&amp;G203&amp;H203</f>
-        <v>"202 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"202 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
@@ -7434,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>0</v>
@@ -7447,8 +6886,8 @@
         <v>105</v>
       </c>
       <c r="J204" s="1" t="str">
-        <f>A204&amp;B204&amp;C204&amp;D204&amp;E204&amp;F204&amp;G204&amp;H204</f>
-        <v>"203 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"203 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
@@ -7459,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>0</v>
@@ -7472,8 +6911,8 @@
         <v>105</v>
       </c>
       <c r="J205" s="1" t="str">
-        <f>A205&amp;B205&amp;C205&amp;D205&amp;E205&amp;F205&amp;G205&amp;H205</f>
-        <v>"204 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"204 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
@@ -7484,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>0</v>
@@ -7497,8 +6936,8 @@
         <v>105</v>
       </c>
       <c r="J206" s="1" t="str">
-        <f>A206&amp;B206&amp;C206&amp;D206&amp;E206&amp;F206&amp;G206&amp;H206</f>
-        <v>"205 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"205 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
@@ -7509,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>0</v>
@@ -7522,8 +6961,8 @@
         <v>105</v>
       </c>
       <c r="J207" s="1" t="str">
-        <f>A207&amp;B207&amp;C207&amp;D207&amp;E207&amp;F207&amp;G207&amp;H207</f>
-        <v>"206 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"206 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
@@ -7534,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>0</v>
@@ -7546,8 +6985,8 @@
         <v>105</v>
       </c>
       <c r="J208" s="1" t="str">
-        <f>A208&amp;B208&amp;C208&amp;D208&amp;E208&amp;F208&amp;G208&amp;H208</f>
-        <v>"207 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"207 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
@@ -7558,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>0</v>
@@ -7570,8 +7009,8 @@
         <v>105</v>
       </c>
       <c r="J209" s="1" t="str">
-        <f>A209&amp;B209&amp;C209&amp;D209&amp;E209&amp;F209&amp;G209&amp;H209</f>
-        <v>"208 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"208 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
@@ -7582,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>0</v>
@@ -7594,8 +7033,8 @@
         <v>105</v>
       </c>
       <c r="J210" s="1" t="str">
-        <f>A210&amp;B210&amp;C210&amp;D210&amp;E210&amp;F210&amp;G210&amp;H210</f>
-        <v>"209 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"209 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
@@ -7606,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>0</v>
@@ -7618,8 +7057,8 @@
         <v>105</v>
       </c>
       <c r="J211" s="1" t="str">
-        <f>A211&amp;B211&amp;C211&amp;D211&amp;E211&amp;F211&amp;G211&amp;H211</f>
-        <v>"210 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"210 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
@@ -7630,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>0</v>
@@ -7642,8 +7081,8 @@
         <v>105</v>
       </c>
       <c r="J212" s="1" t="str">
-        <f>A212&amp;B212&amp;C212&amp;D212&amp;E212&amp;F212&amp;G212&amp;H212</f>
-        <v>"211 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"211 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
@@ -7654,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>0</v>
@@ -7666,8 +7105,8 @@
         <v>105</v>
       </c>
       <c r="J213" s="1" t="str">
-        <f>A213&amp;B213&amp;C213&amp;D213&amp;E213&amp;F213&amp;G213&amp;H213</f>
-        <v>"212 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"212 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
@@ -7678,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>0</v>
@@ -7690,8 +7129,8 @@
         <v>105</v>
       </c>
       <c r="J214" s="1" t="str">
-        <f>A214&amp;B214&amp;C214&amp;D214&amp;E214&amp;F214&amp;G214&amp;H214</f>
-        <v>"213 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"213 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
@@ -7702,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>0</v>
@@ -7714,8 +7153,8 @@
         <v>105</v>
       </c>
       <c r="J215" s="1" t="str">
-        <f>A215&amp;B215&amp;C215&amp;D215&amp;E215&amp;F215&amp;G215&amp;H215</f>
-        <v>"214 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"214 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
@@ -7726,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>0</v>
@@ -7738,8 +7177,8 @@
         <v>105</v>
       </c>
       <c r="J216" s="1" t="str">
-        <f>A216&amp;B216&amp;C216&amp;D216&amp;E216&amp;F216&amp;G216&amp;H216</f>
-        <v>"215 miscellaneousflair ": "",</v>
+        <f t="shared" si="4"/>
+        <v>"215 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
@@ -7750,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>0</v>
@@ -7762,8 +7201,8 @@
         <v>105</v>
       </c>
       <c r="J217" s="1" t="str">
-        <f>A217&amp;B217&amp;C217&amp;D217&amp;E217&amp;F217&amp;G217&amp;H217</f>
-        <v>"216 miscellaneousflair ": "",</v>
+        <f t="shared" ref="J217:J248" si="5">A217&amp;B217&amp;C217&amp;D217&amp;E217&amp;F217&amp;G217&amp;H217</f>
+        <v>"216 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
@@ -7774,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>0</v>
@@ -7786,8 +7225,8 @@
         <v>105</v>
       </c>
       <c r="J218" s="1" t="str">
-        <f>A218&amp;B218&amp;C218&amp;D218&amp;E218&amp;F218&amp;G218&amp;H218</f>
-        <v>"217 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"217 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
@@ -7798,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>0</v>
@@ -7810,8 +7249,8 @@
         <v>105</v>
       </c>
       <c r="J219" s="1" t="str">
-        <f>A219&amp;B219&amp;C219&amp;D219&amp;E219&amp;F219&amp;G219&amp;H219</f>
-        <v>"218 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"218 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
@@ -7822,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>0</v>
@@ -7834,8 +7273,8 @@
         <v>105</v>
       </c>
       <c r="J220" s="1" t="str">
-        <f>A220&amp;B220&amp;C220&amp;D220&amp;E220&amp;F220&amp;G220&amp;H220</f>
-        <v>"219 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"219 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
@@ -7846,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>0</v>
@@ -7858,8 +7297,8 @@
         <v>105</v>
       </c>
       <c r="J221" s="1" t="str">
-        <f>A221&amp;B221&amp;C221&amp;D221&amp;E221&amp;F221&amp;G221&amp;H221</f>
-        <v>"220 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"220 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
@@ -7870,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>0</v>
@@ -7882,8 +7321,8 @@
         <v>105</v>
       </c>
       <c r="J222" s="1" t="str">
-        <f>A222&amp;B222&amp;C222&amp;D222&amp;E222&amp;F222&amp;G222&amp;H222</f>
-        <v>"221 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"221 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
@@ -7894,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>0</v>
@@ -7906,8 +7345,8 @@
         <v>105</v>
       </c>
       <c r="J223" s="1" t="str">
-        <f>A223&amp;B223&amp;C223&amp;D223&amp;E223&amp;F223&amp;G223&amp;H223</f>
-        <v>"222 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"222 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
@@ -7918,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>0</v>
@@ -7930,8 +7369,8 @@
         <v>105</v>
       </c>
       <c r="J224" s="1" t="str">
-        <f>A224&amp;B224&amp;C224&amp;D224&amp;E224&amp;F224&amp;G224&amp;H224</f>
-        <v>"223 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"223 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
@@ -7942,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>0</v>
@@ -7954,8 +7393,8 @@
         <v>105</v>
       </c>
       <c r="J225" s="1" t="str">
-        <f>A225&amp;B225&amp;C225&amp;D225&amp;E225&amp;F225&amp;G225&amp;H225</f>
-        <v>"224 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"224 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
@@ -7966,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>0</v>
@@ -7978,8 +7417,8 @@
         <v>105</v>
       </c>
       <c r="J226" s="1" t="str">
-        <f>A226&amp;B226&amp;C226&amp;D226&amp;E226&amp;F226&amp;G226&amp;H226</f>
-        <v>"225 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"225 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
@@ -7990,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>0</v>
@@ -8002,8 +7441,8 @@
         <v>105</v>
       </c>
       <c r="J227" s="1" t="str">
-        <f>A227&amp;B227&amp;C227&amp;D227&amp;E227&amp;F227&amp;G227&amp;H227</f>
-        <v>"226 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"226 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
@@ -8014,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>0</v>
@@ -8026,8 +7465,8 @@
         <v>105</v>
       </c>
       <c r="J228" s="1" t="str">
-        <f>A228&amp;B228&amp;C228&amp;D228&amp;E228&amp;F228&amp;G228&amp;H228</f>
-        <v>"227 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"227 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
@@ -8038,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>0</v>
@@ -8050,8 +7489,8 @@
         <v>105</v>
       </c>
       <c r="J229" s="1" t="str">
-        <f>A229&amp;B229&amp;C229&amp;D229&amp;E229&amp;F229&amp;G229&amp;H229</f>
-        <v>"228 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"228 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
@@ -8062,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>0</v>
@@ -8074,8 +7513,8 @@
         <v>105</v>
       </c>
       <c r="J230" s="1" t="str">
-        <f>A230&amp;B230&amp;C230&amp;D230&amp;E230&amp;F230&amp;G230&amp;H230</f>
-        <v>"229 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"229 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
@@ -8086,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>0</v>
@@ -8098,8 +7537,8 @@
         <v>105</v>
       </c>
       <c r="J231" s="1" t="str">
-        <f>A231&amp;B231&amp;C231&amp;D231&amp;E231&amp;F231&amp;G231&amp;H231</f>
-        <v>"230 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"230 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
@@ -8110,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>0</v>
@@ -8122,8 +7561,8 @@
         <v>105</v>
       </c>
       <c r="J232" s="1" t="str">
-        <f>A232&amp;B232&amp;C232&amp;D232&amp;E232&amp;F232&amp;G232&amp;H232</f>
-        <v>"231 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"231 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
@@ -8134,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>0</v>
@@ -8146,8 +7585,8 @@
         <v>105</v>
       </c>
       <c r="J233" s="1" t="str">
-        <f>A233&amp;B233&amp;C233&amp;D233&amp;E233&amp;F233&amp;G233&amp;H233</f>
-        <v>"232 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"232 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
@@ -8158,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>0</v>
@@ -8170,8 +7609,8 @@
         <v>105</v>
       </c>
       <c r="J234" s="1" t="str">
-        <f>A234&amp;B234&amp;C234&amp;D234&amp;E234&amp;F234&amp;G234&amp;H234</f>
-        <v>"233 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"233 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
@@ -8182,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>0</v>
@@ -8194,8 +7633,8 @@
         <v>105</v>
       </c>
       <c r="J235" s="1" t="str">
-        <f>A235&amp;B235&amp;C235&amp;D235&amp;E235&amp;F235&amp;G235&amp;H235</f>
-        <v>"234 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"234 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
@@ -8206,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>0</v>
@@ -8218,8 +7657,8 @@
         <v>105</v>
       </c>
       <c r="J236" s="1" t="str">
-        <f>A236&amp;B236&amp;C236&amp;D236&amp;E236&amp;F236&amp;G236&amp;H236</f>
-        <v>"235 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"235 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
@@ -8230,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>0</v>
@@ -8242,8 +7681,8 @@
         <v>105</v>
       </c>
       <c r="J237" s="1" t="str">
-        <f>A237&amp;B237&amp;C237&amp;D237&amp;E237&amp;F237&amp;G237&amp;H237</f>
-        <v>"236 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"236 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
@@ -8254,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>0</v>
@@ -8266,8 +7705,8 @@
         <v>105</v>
       </c>
       <c r="J238" s="1" t="str">
-        <f>A238&amp;B238&amp;C238&amp;D238&amp;E238&amp;F238&amp;G238&amp;H238</f>
-        <v>"237 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"237 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
@@ -8278,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>0</v>
@@ -8290,8 +7729,8 @@
         <v>105</v>
       </c>
       <c r="J239" s="1" t="str">
-        <f>A239&amp;B239&amp;C239&amp;D239&amp;E239&amp;F239&amp;G239&amp;H239</f>
-        <v>"238 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"238 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
@@ -8302,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>0</v>
@@ -8314,8 +7753,8 @@
         <v>105</v>
       </c>
       <c r="J240" s="1" t="str">
-        <f>A240&amp;B240&amp;C240&amp;D240&amp;E240&amp;F240&amp;G240&amp;H240</f>
-        <v>"239 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"239 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.35">
@@ -8326,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>0</v>
@@ -8338,8 +7777,8 @@
         <v>105</v>
       </c>
       <c r="J241" s="1" t="str">
-        <f>A241&amp;B241&amp;C241&amp;D241&amp;E241&amp;F241&amp;G241&amp;H241</f>
-        <v>"240 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"240 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.35">
@@ -8350,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>0</v>
@@ -8362,8 +7801,8 @@
         <v>105</v>
       </c>
       <c r="J242" s="1" t="str">
-        <f>A242&amp;B242&amp;C242&amp;D242&amp;E242&amp;F242&amp;G242&amp;H242</f>
-        <v>"241 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"241 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.35">
@@ -8374,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>0</v>
@@ -8386,8 +7825,8 @@
         <v>105</v>
       </c>
       <c r="J243" s="1" t="str">
-        <f>A243&amp;B243&amp;C243&amp;D243&amp;E243&amp;F243&amp;G243&amp;H243</f>
-        <v>"242 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"242 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
@@ -8398,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>0</v>
@@ -8410,8 +7849,8 @@
         <v>105</v>
       </c>
       <c r="J244" s="1" t="str">
-        <f>A244&amp;B244&amp;C244&amp;D244&amp;E244&amp;F244&amp;G244&amp;H244</f>
-        <v>"243 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"243 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.35">
@@ -8422,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>0</v>
@@ -8434,8 +7873,8 @@
         <v>105</v>
       </c>
       <c r="J245" s="1" t="str">
-        <f>A245&amp;B245&amp;C245&amp;D245&amp;E245&amp;F245&amp;G245&amp;H245</f>
-        <v>"244 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"244 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
@@ -8446,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>0</v>
@@ -8458,8 +7897,8 @@
         <v>105</v>
       </c>
       <c r="J246" s="1" t="str">
-        <f>A246&amp;B246&amp;C246&amp;D246&amp;E246&amp;F246&amp;G246&amp;H246</f>
-        <v>"245 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"245 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.35">
@@ -8470,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>0</v>
@@ -8482,8 +7921,8 @@
         <v>105</v>
       </c>
       <c r="J247" s="1" t="str">
-        <f>A247&amp;B247&amp;C247&amp;D247&amp;E247&amp;F247&amp;G247&amp;H247</f>
-        <v>"246 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"246 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.35">
@@ -8494,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>0</v>
@@ -8506,8 +7945,8 @@
         <v>105</v>
       </c>
       <c r="J248" s="1" t="str">
-        <f>A248&amp;B248&amp;C248&amp;D248&amp;E248&amp;F248&amp;G248&amp;H248</f>
-        <v>"247 miscellaneousflair ": "",</v>
+        <f t="shared" si="5"/>
+        <v>"247 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.35">
@@ -8518,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>0</v>
@@ -8530,8 +7969,8 @@
         <v>105</v>
       </c>
       <c r="J249" s="1" t="str">
-        <f>A249&amp;B249&amp;C249&amp;D249&amp;E249&amp;F249&amp;G249&amp;H249</f>
-        <v>"248 miscellaneousflair ": "",</v>
+        <f t="shared" ref="J249:J280" si="6">A249&amp;B249&amp;C249&amp;D249&amp;E249&amp;F249&amp;G249&amp;H249</f>
+        <v>"248 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.35">
@@ -8542,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>0</v>
@@ -8554,8 +7993,8 @@
         <v>105</v>
       </c>
       <c r="J250" s="1" t="str">
-        <f>A250&amp;B250&amp;C250&amp;D250&amp;E250&amp;F250&amp;G250&amp;H250</f>
-        <v>"249 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"249 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.35">
@@ -8566,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>0</v>
@@ -8578,8 +8017,8 @@
         <v>105</v>
       </c>
       <c r="J251" s="1" t="str">
-        <f>A251&amp;B251&amp;C251&amp;D251&amp;E251&amp;F251&amp;G251&amp;H251</f>
-        <v>"250 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"250 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
@@ -8590,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>0</v>
@@ -8602,8 +8041,8 @@
         <v>105</v>
       </c>
       <c r="J252" s="1" t="str">
-        <f>A252&amp;B252&amp;C252&amp;D252&amp;E252&amp;F252&amp;G252&amp;H252</f>
-        <v>"251 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"251 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
@@ -8614,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>0</v>
@@ -8626,8 +8065,8 @@
         <v>105</v>
       </c>
       <c r="J253" s="1" t="str">
-        <f>A253&amp;B253&amp;C253&amp;D253&amp;E253&amp;F253&amp;G253&amp;H253</f>
-        <v>"252 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"252 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.35">
@@ -8638,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>0</v>
@@ -8650,8 +8089,8 @@
         <v>105</v>
       </c>
       <c r="J254" s="1" t="str">
-        <f>A254&amp;B254&amp;C254&amp;D254&amp;E254&amp;F254&amp;G254&amp;H254</f>
-        <v>"253 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"253 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.35">
@@ -8662,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>0</v>
@@ -8674,8 +8113,8 @@
         <v>105</v>
       </c>
       <c r="J255" s="1" t="str">
-        <f>A255&amp;B255&amp;C255&amp;D255&amp;E255&amp;F255&amp;G255&amp;H255</f>
-        <v>"254 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"254 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.35">
@@ -8686,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>0</v>
@@ -8698,8 +8137,8 @@
         <v>105</v>
       </c>
       <c r="J256" s="1" t="str">
-        <f>A256&amp;B256&amp;C256&amp;D256&amp;E256&amp;F256&amp;G256&amp;H256</f>
-        <v>"255 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"255 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.35">
@@ -8710,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>0</v>
@@ -8722,8 +8161,8 @@
         <v>105</v>
       </c>
       <c r="J257" s="1" t="str">
-        <f>A257&amp;B257&amp;C257&amp;D257&amp;E257&amp;F257&amp;G257&amp;H257</f>
-        <v>"256 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"256 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
@@ -8734,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>0</v>
@@ -8746,8 +8185,8 @@
         <v>105</v>
       </c>
       <c r="J258" s="1" t="str">
-        <f>A258&amp;B258&amp;C258&amp;D258&amp;E258&amp;F258&amp;G258&amp;H258</f>
-        <v>"257 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"257 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.35">
@@ -8758,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>0</v>
@@ -8770,8 +8209,8 @@
         <v>105</v>
       </c>
       <c r="J259" s="1" t="str">
-        <f>A259&amp;B259&amp;C259&amp;D259&amp;E259&amp;F259&amp;G259&amp;H259</f>
-        <v>"258 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"258 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.35">
@@ -8782,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>0</v>
@@ -8794,8 +8233,8 @@
         <v>105</v>
       </c>
       <c r="J260" s="1" t="str">
-        <f>A260&amp;B260&amp;C260&amp;D260&amp;E260&amp;F260&amp;G260&amp;H260</f>
-        <v>"259 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"259 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.35">
@@ -8806,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>0</v>
@@ -8818,8 +8257,8 @@
         <v>105</v>
       </c>
       <c r="J261" s="1" t="str">
-        <f>A261&amp;B261&amp;C261&amp;D261&amp;E261&amp;F261&amp;G261&amp;H261</f>
-        <v>"260 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"260 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.35">
@@ -8830,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>0</v>
@@ -8842,8 +8281,8 @@
         <v>105</v>
       </c>
       <c r="J262" s="1" t="str">
-        <f>A262&amp;B262&amp;C262&amp;D262&amp;E262&amp;F262&amp;G262&amp;H262</f>
-        <v>"261 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"261 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.35">
@@ -8854,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>0</v>
@@ -8866,8 +8305,8 @@
         <v>105</v>
       </c>
       <c r="J263" s="1" t="str">
-        <f>A263&amp;B263&amp;C263&amp;D263&amp;E263&amp;F263&amp;G263&amp;H263</f>
-        <v>"262 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"262 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.35">
@@ -8878,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>0</v>
@@ -8890,8 +8329,8 @@
         <v>105</v>
       </c>
       <c r="J264" s="1" t="str">
-        <f>A264&amp;B264&amp;C264&amp;D264&amp;E264&amp;F264&amp;G264&amp;H264</f>
-        <v>"263 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"263 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.35">
@@ -8902,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>0</v>
@@ -8914,8 +8353,8 @@
         <v>105</v>
       </c>
       <c r="J265" s="1" t="str">
-        <f>A265&amp;B265&amp;C265&amp;D265&amp;E265&amp;F265&amp;G265&amp;H265</f>
-        <v>"264 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"264 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
@@ -8926,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>0</v>
@@ -8938,8 +8377,8 @@
         <v>105</v>
       </c>
       <c r="J266" s="1" t="str">
-        <f>A266&amp;B266&amp;C266&amp;D266&amp;E266&amp;F266&amp;G266&amp;H266</f>
-        <v>"265 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"265 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
@@ -8950,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>0</v>
@@ -8962,8 +8401,8 @@
         <v>105</v>
       </c>
       <c r="J267" s="1" t="str">
-        <f>A267&amp;B267&amp;C267&amp;D267&amp;E267&amp;F267&amp;G267&amp;H267</f>
-        <v>"266 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"266 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.35">
@@ -8974,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>0</v>
@@ -8986,8 +8425,8 @@
         <v>105</v>
       </c>
       <c r="J268" s="1" t="str">
-        <f>A268&amp;B268&amp;C268&amp;D268&amp;E268&amp;F268&amp;G268&amp;H268</f>
-        <v>"267 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"267 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
@@ -8998,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>0</v>
@@ -9010,8 +8449,8 @@
         <v>105</v>
       </c>
       <c r="J269" s="1" t="str">
-        <f>A269&amp;B269&amp;C269&amp;D269&amp;E269&amp;F269&amp;G269&amp;H269</f>
-        <v>"268 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"268 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
@@ -9022,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>0</v>
@@ -9034,8 +8473,8 @@
         <v>105</v>
       </c>
       <c r="J270" s="1" t="str">
-        <f>A270&amp;B270&amp;C270&amp;D270&amp;E270&amp;F270&amp;G270&amp;H270</f>
-        <v>"269 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"269 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
@@ -9046,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>0</v>
@@ -9058,8 +8497,8 @@
         <v>105</v>
       </c>
       <c r="J271" s="1" t="str">
-        <f>A271&amp;B271&amp;C271&amp;D271&amp;E271&amp;F271&amp;G271&amp;H271</f>
-        <v>"270 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"270 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
@@ -9070,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>0</v>
@@ -9082,8 +8521,8 @@
         <v>105</v>
       </c>
       <c r="J272" s="1" t="str">
-        <f>A272&amp;B272&amp;C272&amp;D272&amp;E272&amp;F272&amp;G272&amp;H272</f>
-        <v>"271 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"271 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
@@ -9094,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>0</v>
@@ -9106,8 +8545,8 @@
         <v>105</v>
       </c>
       <c r="J273" s="1" t="str">
-        <f>A273&amp;B273&amp;C273&amp;D273&amp;E273&amp;F273&amp;G273&amp;H273</f>
-        <v>"272 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"272 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
@@ -9118,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>0</v>
@@ -9130,8 +8569,8 @@
         <v>105</v>
       </c>
       <c r="J274" s="1" t="str">
-        <f>A274&amp;B274&amp;C274&amp;D274&amp;E274&amp;F274&amp;G274&amp;H274</f>
-        <v>"273 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"273 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
@@ -9142,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>0</v>
@@ -9154,8 +8593,8 @@
         <v>105</v>
       </c>
       <c r="J275" s="1" t="str">
-        <f>A275&amp;B275&amp;C275&amp;D275&amp;E275&amp;F275&amp;G275&amp;H275</f>
-        <v>"274 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"274 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
@@ -9166,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>0</v>
@@ -9178,8 +8617,8 @@
         <v>105</v>
       </c>
       <c r="J276" s="1" t="str">
-        <f>A276&amp;B276&amp;C276&amp;D276&amp;E276&amp;F276&amp;G276&amp;H276</f>
-        <v>"275 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"275 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
@@ -9190,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>0</v>
@@ -9202,8 +8641,8 @@
         <v>105</v>
       </c>
       <c r="J277" s="1" t="str">
-        <f>A277&amp;B277&amp;C277&amp;D277&amp;E277&amp;F277&amp;G277&amp;H277</f>
-        <v>"276 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"276 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
@@ -9214,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>0</v>
@@ -9226,8 +8665,8 @@
         <v>105</v>
       </c>
       <c r="J278" s="1" t="str">
-        <f>A278&amp;B278&amp;C278&amp;D278&amp;E278&amp;F278&amp;G278&amp;H278</f>
-        <v>"277 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"277 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
@@ -9238,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>0</v>
@@ -9250,8 +8689,8 @@
         <v>105</v>
       </c>
       <c r="J279" s="1" t="str">
-        <f>A279&amp;B279&amp;C279&amp;D279&amp;E279&amp;F279&amp;G279&amp;H279</f>
-        <v>"278 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"278 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
@@ -9262,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>0</v>
@@ -9274,8 +8713,8 @@
         <v>105</v>
       </c>
       <c r="J280" s="1" t="str">
-        <f>A280&amp;B280&amp;C280&amp;D280&amp;E280&amp;F280&amp;G280&amp;H280</f>
-        <v>"279 miscellaneousflair ": "",</v>
+        <f t="shared" si="6"/>
+        <v>"279 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
@@ -9286,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>0</v>
@@ -9298,8 +8737,8 @@
         <v>105</v>
       </c>
       <c r="J281" s="1" t="str">
-        <f>A281&amp;B281&amp;C281&amp;D281&amp;E281&amp;F281&amp;G281&amp;H281</f>
-        <v>"280 miscellaneousflair ": "",</v>
+        <f t="shared" ref="J281:J300" si="7">A281&amp;B281&amp;C281&amp;D281&amp;E281&amp;F281&amp;G281&amp;H281</f>
+        <v>"280 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
@@ -9310,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>0</v>
@@ -9322,8 +8761,8 @@
         <v>105</v>
       </c>
       <c r="J282" s="1" t="str">
-        <f>A282&amp;B282&amp;C282&amp;D282&amp;E282&amp;F282&amp;G282&amp;H282</f>
-        <v>"281 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"281 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
@@ -9334,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>0</v>
@@ -9346,8 +8785,8 @@
         <v>105</v>
       </c>
       <c r="J283" s="1" t="str">
-        <f>A283&amp;B283&amp;C283&amp;D283&amp;E283&amp;F283&amp;G283&amp;H283</f>
-        <v>"282 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"282 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
@@ -9358,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>0</v>
@@ -9370,8 +8809,8 @@
         <v>105</v>
       </c>
       <c r="J284" s="1" t="str">
-        <f>A284&amp;B284&amp;C284&amp;D284&amp;E284&amp;F284&amp;G284&amp;H284</f>
-        <v>"283 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"283 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
@@ -9382,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>0</v>
@@ -9394,8 +8833,8 @@
         <v>105</v>
       </c>
       <c r="J285" s="1" t="str">
-        <f>A285&amp;B285&amp;C285&amp;D285&amp;E285&amp;F285&amp;G285&amp;H285</f>
-        <v>"284 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"284 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
@@ -9406,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>0</v>
@@ -9418,8 +8857,8 @@
         <v>105</v>
       </c>
       <c r="J286" s="1" t="str">
-        <f>A286&amp;B286&amp;C286&amp;D286&amp;E286&amp;F286&amp;G286&amp;H286</f>
-        <v>"285 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"285 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
@@ -9430,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>0</v>
@@ -9442,8 +8881,8 @@
         <v>105</v>
       </c>
       <c r="J287" s="1" t="str">
-        <f>A287&amp;B287&amp;C287&amp;D287&amp;E287&amp;F287&amp;G287&amp;H287</f>
-        <v>"286 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"286 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
@@ -9454,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>0</v>
@@ -9466,8 +8905,8 @@
         <v>105</v>
       </c>
       <c r="J288" s="1" t="str">
-        <f>A288&amp;B288&amp;C288&amp;D288&amp;E288&amp;F288&amp;G288&amp;H288</f>
-        <v>"287 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"287 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
@@ -9478,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>0</v>
@@ -9490,8 +8929,8 @@
         <v>105</v>
       </c>
       <c r="J289" s="1" t="str">
-        <f>A289&amp;B289&amp;C289&amp;D289&amp;E289&amp;F289&amp;G289&amp;H289</f>
-        <v>"288 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"288 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
@@ -9502,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>0</v>
@@ -9514,8 +8953,8 @@
         <v>105</v>
       </c>
       <c r="J290" s="1" t="str">
-        <f>A290&amp;B290&amp;C290&amp;D290&amp;E290&amp;F290&amp;G290&amp;H290</f>
-        <v>"289 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"289 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
@@ -9526,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>0</v>
@@ -9538,8 +8977,8 @@
         <v>105</v>
       </c>
       <c r="J291" s="1" t="str">
-        <f>A291&amp;B291&amp;C291&amp;D291&amp;E291&amp;F291&amp;G291&amp;H291</f>
-        <v>"290 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"290 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
@@ -9550,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>0</v>
@@ -9562,8 +9001,8 @@
         <v>105</v>
       </c>
       <c r="J292" s="1" t="str">
-        <f>A292&amp;B292&amp;C292&amp;D292&amp;E292&amp;F292&amp;G292&amp;H292</f>
-        <v>"291 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"291 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
@@ -9574,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>0</v>
@@ -9586,8 +9025,8 @@
         <v>105</v>
       </c>
       <c r="J293" s="1" t="str">
-        <f>A293&amp;B293&amp;C293&amp;D293&amp;E293&amp;F293&amp;G293&amp;H293</f>
-        <v>"292 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"292 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
@@ -9598,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>0</v>
@@ -9610,8 +9049,8 @@
         <v>105</v>
       </c>
       <c r="J294" s="1" t="str">
-        <f>A294&amp;B294&amp;C294&amp;D294&amp;E294&amp;F294&amp;G294&amp;H294</f>
-        <v>"293 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"293 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
@@ -9622,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>0</v>
@@ -9634,8 +9073,8 @@
         <v>105</v>
       </c>
       <c r="J295" s="1" t="str">
-        <f>A295&amp;B295&amp;C295&amp;D295&amp;E295&amp;F295&amp;G295&amp;H295</f>
-        <v>"294 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"294 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
@@ -9646,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>0</v>
@@ -9658,8 +9097,8 @@
         <v>105</v>
       </c>
       <c r="J296" s="1" t="str">
-        <f>A296&amp;B296&amp;C296&amp;D296&amp;E296&amp;F296&amp;G296&amp;H296</f>
-        <v>"295 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"295 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
@@ -9670,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>0</v>
@@ -9682,8 +9121,8 @@
         <v>105</v>
       </c>
       <c r="J297" s="1" t="str">
-        <f>A297&amp;B297&amp;C297&amp;D297&amp;E297&amp;F297&amp;G297&amp;H297</f>
-        <v>"296 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"296 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
@@ -9694,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>0</v>
@@ -9706,8 +9145,8 @@
         <v>105</v>
       </c>
       <c r="J298" s="1" t="str">
-        <f>A298&amp;B298&amp;C298&amp;D298&amp;E298&amp;F298&amp;G298&amp;H298</f>
-        <v>"297 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"297 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
@@ -9718,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>0</v>
@@ -9730,8 +9169,8 @@
         <v>105</v>
       </c>
       <c r="J299" s="1" t="str">
-        <f>A299&amp;B299&amp;C299&amp;D299&amp;E299&amp;F299&amp;G299&amp;H299</f>
-        <v>"298 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"298 regularwarframesflair ": "",</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
@@ -9742,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>0</v>
@@ -9754,8 +9193,8 @@
         <v>105</v>
       </c>
       <c r="J300" s="1" t="str">
-        <f>A300&amp;B300&amp;C300&amp;D300&amp;E300&amp;F300&amp;G300&amp;H300</f>
-        <v>"299 miscellaneousflair ": "",</v>
+        <f t="shared" si="7"/>
+        <v>"299 regularwarframesflair ": "",</v>
       </c>
     </row>
   </sheetData>
